--- a/data/134/DEUSTATIS/old/Turnover in retail trade - 2004.xlsx
+++ b/data/134/DEUSTATIS/old/Turnover in retail trade - 2004.xlsx
@@ -190,7 +190,7 @@
     <t>a break in the time series.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:08:57</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:04:36</t>
   </si>
 </sst>
 </file>
@@ -6425,7 +6425,7 @@
         <v>95.1</v>
       </c>
       <c r="AX13" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="AY13" t="n" s="10">
         <v>96.2</v>
@@ -8298,10 +8298,10 @@
         <v>86.7</v>
       </c>
       <c r="E18" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="F18" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="G18" t="n" s="10">
         <v>85.5</v>
@@ -8334,7 +8334,7 @@
         <v>88.3</v>
       </c>
       <c r="Q18" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="R18" t="n" s="10">
         <v>88.0</v>
@@ -8346,7 +8346,7 @@
         <v>88.4</v>
       </c>
       <c r="U18" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="V18" t="n" s="10">
         <v>89.3</v>
@@ -8370,7 +8370,7 @@
         <v>89.5</v>
       </c>
       <c r="AC18" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="AD18" t="n" s="10">
         <v>89.8</v>
@@ -8379,7 +8379,7 @@
         <v>90.5</v>
       </c>
       <c r="AF18" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="AG18" t="n" s="10">
         <v>89.9</v>
@@ -8421,7 +8421,7 @@
         <v>87.9</v>
       </c>
       <c r="AT18" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="AU18" t="n" s="10">
         <v>88.2</v>
@@ -8442,16 +8442,16 @@
         <v>91.8</v>
       </c>
       <c r="BA18" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="BB18" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="BC18" t="n" s="10">
         <v>91.8</v>
       </c>
       <c r="BD18" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="BE18" t="n" s="10">
         <v>90.6</v>
@@ -8517,7 +8517,7 @@
         <v>90.6</v>
       </c>
       <c r="BZ18" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="CA18" t="n" s="10">
         <v>88.7</v>
@@ -8526,7 +8526,7 @@
         <v>89.8</v>
       </c>
       <c r="CC18" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="CD18" t="n" s="10">
         <v>89.1</v>
@@ -8541,7 +8541,7 @@
         <v>90.3</v>
       </c>
       <c r="CH18" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="CI18" t="n" s="10">
         <v>90.4</v>
@@ -8568,7 +8568,7 @@
         <v>92.2</v>
       </c>
       <c r="CQ18" t="n" s="10">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="CR18" t="n" s="10">
         <v>92.5</v>
@@ -8592,7 +8592,7 @@
         <v>92.1</v>
       </c>
       <c r="CY18" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="CZ18" t="n" s="10">
         <v>94.9</v>
@@ -8604,7 +8604,7 @@
         <v>93.5</v>
       </c>
       <c r="DC18" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="DD18" t="n" s="10">
         <v>94.2</v>
@@ -8613,7 +8613,7 @@
         <v>93.9</v>
       </c>
       <c r="DF18" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="DG18" t="n" s="10">
         <v>94.7</v>
@@ -8622,13 +8622,13 @@
         <v>93.7</v>
       </c>
       <c r="DI18" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="DJ18" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="DK18" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="DL18" t="n" s="10">
         <v>94.5</v>
@@ -8673,7 +8673,7 @@
         <v>96.0</v>
       </c>
       <c r="DZ18" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="EA18" t="n" s="10">
         <v>96.8</v>
@@ -8729,13 +8729,13 @@
         <v>87.9</v>
       </c>
       <c r="O19" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="P19" t="n" s="10">
         <v>88.3</v>
       </c>
       <c r="Q19" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="R19" t="n" s="10">
         <v>88.6</v>
@@ -8792,7 +8792,7 @@
         <v>89.4</v>
       </c>
       <c r="AJ19" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="AK19" t="n" s="10">
         <v>89.1</v>
@@ -8876,7 +8876,7 @@
         <v>88.7</v>
       </c>
       <c r="BL19" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="BM19" t="n" s="10">
         <v>87.9</v>
@@ -8948,7 +8948,7 @@
         <v>90.4</v>
       </c>
       <c r="CJ19" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="CK19" t="n" s="10">
         <v>90.8</v>
@@ -9011,13 +9011,13 @@
         <v>94.0</v>
       </c>
       <c r="DE19" t="n" s="10">
+        <v>94.1</v>
+      </c>
+      <c r="DF19" t="n" s="10">
         <v>94.2</v>
       </c>
-      <c r="DF19" t="n" s="10">
+      <c r="DG19" t="n" s="10">
         <v>94.3</v>
-      </c>
-      <c r="DG19" t="n" s="10">
-        <v>94.4</v>
       </c>
       <c r="DH19" t="n" s="10">
         <v>94.5</v>
@@ -9725,10 +9725,10 @@
         <v>86.3</v>
       </c>
       <c r="BY22" t="n" s="10">
-        <v>98.3</v>
+        <v>98.0</v>
       </c>
       <c r="BZ22" t="n" s="10">
-        <v>95.4</v>
+        <v>95.7</v>
       </c>
       <c r="CA22" t="n" s="10">
         <v>96.7</v>
@@ -9740,37 +9740,37 @@
         <v>98.6</v>
       </c>
       <c r="CD22" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="CE22" t="n" s="10">
         <v>91.3</v>
       </c>
       <c r="CF22" t="n" s="10">
-        <v>97.6</v>
+        <v>98.3</v>
       </c>
       <c r="CG22" t="n" s="10">
         <v>97.9</v>
       </c>
       <c r="CH22" t="n" s="10">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
       <c r="CI22" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="CJ22" t="n" s="10">
         <v>87.4</v>
       </c>
       <c r="CK22" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="CL22" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="CM22" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="CN22" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="CO22" t="n" s="10">
         <v>97.3</v>
@@ -9782,31 +9782,31 @@
         <v>92.3</v>
       </c>
       <c r="CR22" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="CS22" t="n" s="10">
         <v>98.0</v>
       </c>
       <c r="CT22" t="n" s="10">
-        <v>113.5</v>
+        <v>113.6</v>
       </c>
       <c r="CU22" t="n" s="10">
         <v>87.8</v>
       </c>
       <c r="CV22" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="CW22" t="n" s="10">
-        <v>97.2</v>
+        <v>97.0</v>
       </c>
       <c r="CX22" t="n" s="10">
-        <v>96.9</v>
+        <v>97.1</v>
       </c>
       <c r="CY22" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="CZ22" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="DA22" t="n" s="10">
         <v>95.5</v>
@@ -9815,13 +9815,13 @@
         <v>94.7</v>
       </c>
       <c r="DC22" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="DD22" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DE22" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="DF22" t="n" s="10">
         <v>112.9</v>
@@ -9839,25 +9839,25 @@
         <v>96.1</v>
       </c>
       <c r="DK22" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="DL22" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="DM22" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="DN22" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="DO22" t="n" s="10">
         <v>91.9</v>
       </c>
       <c r="DP22" t="n" s="10">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="DQ22" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="DR22" t="n" s="10">
         <v>112.3</v>
@@ -9869,13 +9869,13 @@
         <v>88.2</v>
       </c>
       <c r="DU22" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="DV22" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="DW22" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="DX22" t="n" s="10">
         <v>98.8</v>
@@ -9893,7 +9893,7 @@
         <v>99.9</v>
       </c>
       <c r="EC22" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="ED22" t="n" s="10">
         <v>118.3</v>
@@ -10120,19 +10120,19 @@
         <v>98.1</v>
       </c>
       <c r="BW23" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="BX23" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="BY23" t="n" s="10">
-        <v>97.2</v>
+        <v>97.0</v>
       </c>
       <c r="BZ23" t="n" s="10">
-        <v>95.0</v>
+        <v>95.2</v>
       </c>
       <c r="CA23" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="CB23" t="n" s="10">
         <v>96.0</v>
@@ -10144,10 +10144,10 @@
         <v>95.4</v>
       </c>
       <c r="CE23" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="CF23" t="n" s="10">
-        <v>96.0</v>
+        <v>96.7</v>
       </c>
       <c r="CG23" t="n" s="10">
         <v>95.9</v>
@@ -10162,16 +10162,16 @@
         <v>97.2</v>
       </c>
       <c r="CK23" t="n" s="10">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="CL23" t="n" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="CM23" t="n" s="10">
+        <v>93.8</v>
+      </c>
+      <c r="CN23" t="n" s="10">
         <v>97.7</v>
-      </c>
-      <c r="CM23" t="n" s="10">
-        <v>93.7</v>
-      </c>
-      <c r="CN23" t="n" s="10">
-        <v>97.6</v>
       </c>
       <c r="CO23" t="n" s="10">
         <v>97.4</v>
@@ -10183,7 +10183,7 @@
         <v>96.7</v>
       </c>
       <c r="CR23" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="CS23" t="n" s="10">
         <v>96.0</v>
@@ -10195,13 +10195,13 @@
         <v>94.8</v>
       </c>
       <c r="CV23" t="n" s="10">
-        <v>95.2</v>
+        <v>95.4</v>
       </c>
       <c r="CW23" t="n" s="10">
         <v>95.5</v>
       </c>
       <c r="CX23" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="CY23" t="n" s="10">
         <v>96.2</v>
@@ -10216,19 +10216,19 @@
         <v>96.7</v>
       </c>
       <c r="DC23" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="DD23" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="DE23" t="n" s="10">
         <v>95.9</v>
       </c>
       <c r="DF23" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="DG23" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="DH23" t="n" s="10">
         <v>97.2</v>
@@ -10237,31 +10237,31 @@
         <v>97.9</v>
       </c>
       <c r="DJ23" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="DK23" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="DL23" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="DM23" t="n" s="10">
         <v>98.0</v>
       </c>
       <c r="DN23" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="DO23" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="DP23" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="DQ23" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="DR23" t="n" s="10">
-        <v>95.0</v>
+        <v>94.8</v>
       </c>
       <c r="DS23" t="n" s="10">
         <v>96.8</v>
@@ -10270,19 +10270,19 @@
         <v>97.8</v>
       </c>
       <c r="DU23" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="DV23" t="n" s="10">
-        <v>98.6</v>
+        <v>98.4</v>
       </c>
       <c r="DW23" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="DX23" t="n" s="10">
         <v>99.5</v>
       </c>
       <c r="DY23" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="DZ23" t="n" s="10">
         <v>97.6</v>
@@ -10291,13 +10291,13 @@
         <v>98.0</v>
       </c>
       <c r="EB23" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="EC23" t="n" s="10">
         <v>98.7</v>
       </c>
       <c r="ED23" t="n" s="10">
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="24">
@@ -10311,13 +10311,13 @@
         <v>104.4</v>
       </c>
       <c r="E24" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="F24" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="G24" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="H24" t="n" s="10">
         <v>104.9</v>
@@ -10392,7 +10392,7 @@
         <v>106.6</v>
       </c>
       <c r="AF24" t="n" s="10">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="AG24" t="n" s="10">
         <v>106.8</v>
@@ -10428,7 +10428,7 @@
         <v>102.4</v>
       </c>
       <c r="AR24" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="AS24" t="n" s="10">
         <v>101.4</v>
@@ -10440,7 +10440,7 @@
         <v>100.8</v>
       </c>
       <c r="AV24" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AW24" t="n" s="10">
         <v>102.0</v>
@@ -10455,7 +10455,7 @@
         <v>102.3</v>
       </c>
       <c r="BA24" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="BB24" t="n" s="10">
         <v>98.1</v>
@@ -10548,13 +10548,13 @@
         <v>95.7</v>
       </c>
       <c r="CF24" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="CG24" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="CH24" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="CI24" t="n" s="10">
         <v>96.2</v>
@@ -10638,10 +10638,10 @@
         <v>98.9</v>
       </c>
       <c r="DJ24" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="DK24" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="DL24" t="n" s="10">
         <v>96.1</v>
@@ -10677,7 +10677,7 @@
         <v>100.4</v>
       </c>
       <c r="DW24" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="DX24" t="n" s="10">
         <v>98.1</v>
@@ -10736,7 +10736,7 @@
         <v>105.8</v>
       </c>
       <c r="M25" t="n" s="10">
-        <v>106.0</v>
+        <v>106.1</v>
       </c>
       <c r="N25" t="n" s="10">
         <v>106.3</v>
@@ -11003,7 +11003,7 @@
         <v>96.4</v>
       </c>
       <c r="CX25" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="CY25" t="n" s="10">
         <v>96.4</v>
@@ -11069,7 +11069,7 @@
         <v>97.4</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="DU25" t="n" s="10">
         <v>97.7</v>
@@ -11733,10 +11733,10 @@
         <v>79.0</v>
       </c>
       <c r="BY27" t="n" s="10">
-        <v>90.4</v>
+        <v>90.1</v>
       </c>
       <c r="BZ27" t="n" s="10">
-        <v>88.0</v>
+        <v>88.3</v>
       </c>
       <c r="CA27" t="n" s="10">
         <v>89.0</v>
@@ -11748,37 +11748,37 @@
         <v>90.4</v>
       </c>
       <c r="CD27" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="CE27" t="n" s="10">
         <v>83.8</v>
       </c>
       <c r="CF27" t="n" s="10">
-        <v>89.6</v>
+        <v>90.2</v>
       </c>
       <c r="CG27" t="n" s="10">
         <v>90.2</v>
       </c>
       <c r="CH27" t="n" s="10">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="CI27" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="CJ27" t="n" s="10">
         <v>81.3</v>
       </c>
       <c r="CK27" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="CL27" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="CM27" t="n" s="10">
         <v>88.6</v>
       </c>
       <c r="CN27" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="CO27" t="n" s="10">
         <v>90.9</v>
@@ -11790,31 +11790,31 @@
         <v>86.7</v>
       </c>
       <c r="CR27" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="CS27" t="n" s="10">
         <v>92.4</v>
       </c>
       <c r="CT27" t="n" s="10">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="CU27" t="n" s="10">
         <v>83.4</v>
       </c>
       <c r="CV27" t="n" s="10">
-        <v>81.9</v>
+        <v>82.0</v>
       </c>
       <c r="CW27" t="n" s="10">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="CX27" t="n" s="10">
-        <v>93.2</v>
+        <v>93.4</v>
       </c>
       <c r="CY27" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="CZ27" t="n" s="10">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="DA27" t="n" s="10">
         <v>91.3</v>
@@ -11823,13 +11823,13 @@
         <v>90.7</v>
       </c>
       <c r="DC27" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="DD27" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="DE27" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="DF27" t="n" s="10">
         <v>109.7</v>
@@ -11847,25 +11847,25 @@
         <v>94.6</v>
       </c>
       <c r="DK27" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="DL27" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="DM27" t="n" s="10">
         <v>97.1</v>
       </c>
       <c r="DN27" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="DO27" t="n" s="10">
         <v>90.5</v>
       </c>
       <c r="DP27" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DQ27" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="DR27" t="n" s="10">
         <v>111.6</v>
@@ -11877,13 +11877,13 @@
         <v>88.0</v>
       </c>
       <c r="DU27" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="DV27" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="DW27" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="DX27" t="n" s="10">
         <v>98.4</v>
@@ -11901,7 +11901,7 @@
         <v>99.5</v>
       </c>
       <c r="EC27" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="ED27" t="n" s="10">
         <v>117.3</v>
@@ -12128,19 +12128,19 @@
         <v>88.9</v>
       </c>
       <c r="BW28" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="BX28" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="BY28" t="n" s="10">
-        <v>88.9</v>
+        <v>88.7</v>
       </c>
       <c r="BZ28" t="n" s="10">
-        <v>87.1</v>
+        <v>87.3</v>
       </c>
       <c r="CA28" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="CB28" t="n" s="10">
         <v>88.1</v>
@@ -12152,10 +12152,10 @@
         <v>87.8</v>
       </c>
       <c r="CE28" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="CF28" t="n" s="10">
-        <v>88.5</v>
+        <v>89.1</v>
       </c>
       <c r="CG28" t="n" s="10">
         <v>88.8</v>
@@ -12170,16 +12170,16 @@
         <v>90.2</v>
       </c>
       <c r="CK28" t="n" s="10">
-        <v>89.6</v>
+        <v>89.8</v>
       </c>
       <c r="CL28" t="n" s="10">
-        <v>91.0</v>
+        <v>90.8</v>
       </c>
       <c r="CM28" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="CN28" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="CO28" t="n" s="10">
         <v>91.3</v>
@@ -12191,7 +12191,7 @@
         <v>91.1</v>
       </c>
       <c r="CR28" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="CS28" t="n" s="10">
         <v>90.9</v>
@@ -12203,13 +12203,13 @@
         <v>90.0</v>
       </c>
       <c r="CV28" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="CW28" t="n" s="10">
         <v>91.4</v>
       </c>
       <c r="CX28" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="CY28" t="n" s="10">
         <v>92.1</v>
@@ -12224,19 +12224,19 @@
         <v>93.0</v>
       </c>
       <c r="DC28" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="DD28" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="DE28" t="n" s="10">
         <v>93.2</v>
       </c>
       <c r="DF28" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="DG28" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="DH28" t="n" s="10">
         <v>94.6</v>
@@ -12245,31 +12245,31 @@
         <v>95.7</v>
       </c>
       <c r="DJ28" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="DK28" t="n" s="10">
         <v>95.3</v>
       </c>
       <c r="DL28" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="DM28" t="n" s="10">
         <v>97.1</v>
       </c>
       <c r="DN28" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="DO28" t="n" s="10">
         <v>95.3</v>
       </c>
       <c r="DP28" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="DQ28" t="n" s="10">
         <v>98.0</v>
       </c>
       <c r="DR28" t="n" s="10">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="DS28" t="n" s="10">
         <v>96.5</v>
@@ -12278,19 +12278,19 @@
         <v>97.4</v>
       </c>
       <c r="DU28" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="DV28" t="n" s="10">
-        <v>97.8</v>
+        <v>97.6</v>
       </c>
       <c r="DW28" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="DX28" t="n" s="10">
         <v>99.0</v>
       </c>
       <c r="DY28" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="DZ28" t="n" s="10">
         <v>97.2</v>
@@ -12299,13 +12299,13 @@
         <v>97.8</v>
       </c>
       <c r="EB28" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="EC28" t="n" s="10">
         <v>98.0</v>
       </c>
       <c r="ED28" t="n" s="10">
-        <v>99.1</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="29">
@@ -12391,7 +12391,7 @@
         <v>90.4</v>
       </c>
       <c r="AC29" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="AD29" t="n" s="10">
         <v>90.7</v>
@@ -12427,7 +12427,7 @@
         <v>89.3</v>
       </c>
       <c r="AO29" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="AP29" t="n" s="10">
         <v>90.0</v>
@@ -12475,7 +12475,7 @@
         <v>89.1</v>
       </c>
       <c r="BE29" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="BF29" t="n" s="10">
         <v>90.1</v>
@@ -12502,7 +12502,7 @@
         <v>85.7</v>
       </c>
       <c r="BN29" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="BO29" t="n" s="10">
         <v>88.0</v>
@@ -12583,7 +12583,7 @@
         <v>90.0</v>
       </c>
       <c r="CO29" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="CP29" t="n" s="10">
         <v>90.7</v>
@@ -12703,7 +12703,7 @@
         <v>98.3</v>
       </c>
       <c r="EC29" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="ED29" t="n" s="10">
         <v>98.5</v>
@@ -12744,7 +12744,7 @@
         <v>89.0</v>
       </c>
       <c r="M30" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="N30" t="n" s="10">
         <v>89.5</v>
@@ -12789,7 +12789,7 @@
         <v>90.4</v>
       </c>
       <c r="AB30" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="AC30" t="n" s="10">
         <v>90.4</v>
@@ -13080,13 +13080,13 @@
         <v>97.0</v>
       </c>
       <c r="DU30" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="DV30" t="n" s="10">
         <v>97.3</v>
       </c>
       <c r="DW30" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="DX30" t="n" s="10">
         <v>97.5</v>
@@ -13848,7 +13848,7 @@
         <v>117.5</v>
       </c>
       <c r="DG33" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="DH33" t="n" s="10">
         <v>88.2</v>
@@ -13860,7 +13860,7 @@
         <v>99.8</v>
       </c>
       <c r="DK33" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="DL33" t="n" s="10">
         <v>104.0</v>
@@ -13896,13 +13896,13 @@
         <v>102.4</v>
       </c>
       <c r="DW33" t="n" s="10">
-        <v>104.1</v>
+        <v>104.0</v>
       </c>
       <c r="DX33" t="n" s="10">
         <v>104.0</v>
       </c>
       <c r="DY33" t="n" s="10">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="DZ33" t="n" s="10">
         <v>98.8</v>
@@ -14141,7 +14141,7 @@
         <v>106.9</v>
       </c>
       <c r="BW34" t="n" s="10">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="BX34" t="n" s="10">
         <v>104.3</v>
@@ -14156,10 +14156,10 @@
         <v>104.9</v>
       </c>
       <c r="CB34" t="n" s="10">
-        <v>107.0</v>
+        <v>107.2</v>
       </c>
       <c r="CC34" t="n" s="10">
-        <v>108.1</v>
+        <v>108.0</v>
       </c>
       <c r="CD34" t="n" s="10">
         <v>105.1</v>
@@ -14171,13 +14171,13 @@
         <v>107.9</v>
       </c>
       <c r="CG34" t="n" s="10">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="CH34" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="CI34" t="n" s="10">
-        <v>106.3</v>
+        <v>106.1</v>
       </c>
       <c r="CJ34" t="n" s="10">
         <v>106.5</v>
@@ -14192,10 +14192,10 @@
         <v>105.4</v>
       </c>
       <c r="CN34" t="n" s="10">
-        <v>105.2</v>
+        <v>105.4</v>
       </c>
       <c r="CO34" t="n" s="10">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="CP34" t="n" s="10">
         <v>103.6</v>
@@ -14207,19 +14207,19 @@
         <v>104.6</v>
       </c>
       <c r="CS34" t="n" s="10">
-        <v>105.0</v>
+        <v>104.8</v>
       </c>
       <c r="CT34" t="n" s="10">
         <v>104.6</v>
       </c>
       <c r="CU34" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="CV34" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="CW34" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="CX34" t="n" s="10">
         <v>103.2</v>
@@ -14228,19 +14228,19 @@
         <v>104.3</v>
       </c>
       <c r="CZ34" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="DA34" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="DB34" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="DC34" t="n" s="10">
         <v>103.6</v>
       </c>
       <c r="DD34" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="DE34" t="n" s="10">
         <v>102.3</v>
@@ -14249,7 +14249,7 @@
         <v>100.8</v>
       </c>
       <c r="DG34" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="DH34" t="n" s="10">
         <v>101.2</v>
@@ -14267,7 +14267,7 @@
         <v>100.3</v>
       </c>
       <c r="DM34" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="DN34" t="n" s="10">
         <v>101.7</v>
@@ -14303,7 +14303,7 @@
         <v>100.6</v>
       </c>
       <c r="DY34" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="DZ34" t="n" s="10">
         <v>98.2</v>
@@ -14359,7 +14359,7 @@
         <v>128.5</v>
       </c>
       <c r="N35" t="n" s="10">
-        <v>127.3</v>
+        <v>127.4</v>
       </c>
       <c r="O35" t="n" s="10">
         <v>126.3</v>
@@ -14371,13 +14371,13 @@
         <v>128.4</v>
       </c>
       <c r="R35" t="n" s="10">
-        <v>125.8</v>
+        <v>125.9</v>
       </c>
       <c r="S35" t="n" s="10">
-        <v>127.5</v>
+        <v>127.4</v>
       </c>
       <c r="T35" t="n" s="10">
-        <v>126.0</v>
+        <v>126.1</v>
       </c>
       <c r="U35" t="n" s="10">
         <v>124.4</v>
@@ -14407,10 +14407,10 @@
         <v>122.7</v>
       </c>
       <c r="AD35" t="n" s="10">
-        <v>124.2</v>
+        <v>124.1</v>
       </c>
       <c r="AE35" t="n" s="10">
-        <v>124.0</v>
+        <v>124.1</v>
       </c>
       <c r="AF35" t="n" s="10">
         <v>125.4</v>
@@ -14431,7 +14431,7 @@
         <v>121.4</v>
       </c>
       <c r="AL35" t="n" s="10">
-        <v>121.7</v>
+        <v>121.6</v>
       </c>
       <c r="AM35" t="n" s="10">
         <v>120.3</v>
@@ -14467,7 +14467,7 @@
         <v>115.9</v>
       </c>
       <c r="AX35" t="n" s="10">
-        <v>114.1</v>
+        <v>114.0</v>
       </c>
       <c r="AY35" t="n" s="10">
         <v>114.9</v>
@@ -14476,16 +14476,16 @@
         <v>115.7</v>
       </c>
       <c r="BA35" t="n" s="10">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
       <c r="BB35" t="n" s="10">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="BC35" t="n" s="10">
         <v>114.4</v>
       </c>
       <c r="BD35" t="n" s="10">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="BE35" t="n" s="10">
         <v>112.0</v>
@@ -14515,10 +14515,10 @@
         <v>105.5</v>
       </c>
       <c r="BN35" t="n" s="10">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="BO35" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="BP35" t="n" s="10">
         <v>103.8</v>
@@ -14602,7 +14602,7 @@
         <v>104.0</v>
       </c>
       <c r="CQ35" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="CR35" t="n" s="10">
         <v>103.9</v>
@@ -14638,31 +14638,31 @@
         <v>103.8</v>
       </c>
       <c r="DC35" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="DD35" t="n" s="10">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="DE35" t="n" s="10">
         <v>102.8</v>
       </c>
       <c r="DF35" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="DG35" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="DH35" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="DI35" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="DJ35" t="n" s="10">
         <v>99.0</v>
       </c>
       <c r="DK35" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="DL35" t="n" s="10">
         <v>100.1</v>
@@ -14677,7 +14677,7 @@
         <v>100.2</v>
       </c>
       <c r="DP35" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="DQ35" t="n" s="10">
         <v>101.2</v>
@@ -14698,10 +14698,10 @@
         <v>102.8</v>
       </c>
       <c r="DW35" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="DX35" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="DY35" t="n" s="10">
         <v>99.1</v>
@@ -14716,7 +14716,7 @@
         <v>100.5</v>
       </c>
       <c r="EC35" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="ED35" t="n" s="10">
         <v>100.2</v>
@@ -14760,7 +14760,7 @@
         <v>127.8</v>
       </c>
       <c r="N36" t="n" s="10">
-        <v>127.5</v>
+        <v>127.6</v>
       </c>
       <c r="O36" t="n" s="10">
         <v>127.3</v>
@@ -14769,7 +14769,7 @@
         <v>127.1</v>
       </c>
       <c r="Q36" t="n" s="10">
-        <v>126.8</v>
+        <v>126.9</v>
       </c>
       <c r="R36" t="n" s="10">
         <v>126.6</v>
@@ -14781,7 +14781,7 @@
         <v>125.8</v>
       </c>
       <c r="U36" t="n" s="10">
-        <v>125.4</v>
+        <v>125.5</v>
       </c>
       <c r="V36" t="n" s="10">
         <v>125.2</v>
@@ -14841,7 +14841,7 @@
         <v>120.1</v>
       </c>
       <c r="AO36" t="n" s="10">
-        <v>119.6</v>
+        <v>119.5</v>
       </c>
       <c r="AP36" t="n" s="10">
         <v>118.9</v>
@@ -14904,7 +14904,7 @@
         <v>109.3</v>
       </c>
       <c r="BJ36" t="n" s="10">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="BK36" t="n" s="10">
         <v>108.2</v>
@@ -14925,7 +14925,7 @@
         <v>105.7</v>
       </c>
       <c r="BQ36" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="BR36" t="n" s="10">
         <v>105.1</v>
@@ -14976,7 +14976,7 @@
         <v>105.4</v>
       </c>
       <c r="CH36" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="CI36" t="n" s="10">
         <v>105.4</v>
@@ -15012,7 +15012,7 @@
         <v>104.8</v>
       </c>
       <c r="CT36" t="n" s="10">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="CU36" t="n" s="10">
         <v>104.4</v>
@@ -15054,7 +15054,7 @@
         <v>101.8</v>
       </c>
       <c r="DH36" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="DI36" t="n" s="10">
         <v>101.4</v>
@@ -15108,7 +15108,7 @@
         <v>100.0</v>
       </c>
       <c r="DZ36" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="EA36" t="n" s="10">
         <v>99.9</v>
@@ -15856,7 +15856,7 @@
         <v>113.0</v>
       </c>
       <c r="DG38" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="DH38" t="n" s="10">
         <v>85.3</v>
@@ -15868,7 +15868,7 @@
         <v>97.1</v>
       </c>
       <c r="DK38" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="DL38" t="n" s="10">
         <v>101.7</v>
@@ -15904,13 +15904,13 @@
         <v>100.9</v>
       </c>
       <c r="DW38" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="DX38" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="DY38" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="DZ38" t="n" s="10">
         <v>97.4</v>
@@ -16149,7 +16149,7 @@
         <v>94.9</v>
       </c>
       <c r="BW39" t="n" s="10">
-        <v>92.3</v>
+        <v>92.1</v>
       </c>
       <c r="BX39" t="n" s="10">
         <v>93.0</v>
@@ -16164,10 +16164,10 @@
         <v>93.9</v>
       </c>
       <c r="CB39" t="n" s="10">
-        <v>95.7</v>
+        <v>95.9</v>
       </c>
       <c r="CC39" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="CD39" t="n" s="10">
         <v>94.2</v>
@@ -16179,13 +16179,13 @@
         <v>96.9</v>
       </c>
       <c r="CG39" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="CH39" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="CI39" t="n" s="10">
-        <v>96.2</v>
+        <v>96.0</v>
       </c>
       <c r="CJ39" t="n" s="10">
         <v>96.6</v>
@@ -16200,10 +16200,10 @@
         <v>96.4</v>
       </c>
       <c r="CN39" t="n" s="10">
-        <v>96.4</v>
+        <v>96.6</v>
       </c>
       <c r="CO39" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="CP39" t="n" s="10">
         <v>95.6</v>
@@ -16215,16 +16215,16 @@
         <v>97.0</v>
       </c>
       <c r="CS39" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="CT39" t="n" s="10">
         <v>97.2</v>
       </c>
       <c r="CU39" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="CV39" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="CW39" t="n" s="10">
         <v>98.6</v>
@@ -16236,19 +16236,19 @@
         <v>98.4</v>
       </c>
       <c r="CZ39" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="DA39" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="DB39" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="DC39" t="n" s="10">
         <v>98.5</v>
       </c>
       <c r="DD39" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="DE39" t="n" s="10">
         <v>98.1</v>
@@ -16257,7 +16257,7 @@
         <v>97.0</v>
       </c>
       <c r="DG39" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="DH39" t="n" s="10">
         <v>97.6</v>
@@ -16275,7 +16275,7 @@
         <v>98.0</v>
       </c>
       <c r="DM39" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="DN39" t="n" s="10">
         <v>99.5</v>
@@ -16311,7 +16311,7 @@
         <v>98.8</v>
       </c>
       <c r="DY39" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="DZ39" t="n" s="10">
         <v>97.1</v>
@@ -16352,7 +16352,7 @@
         <v>103.3</v>
       </c>
       <c r="I40" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="J40" t="n" s="10">
         <v>102.4</v>
@@ -16367,7 +16367,7 @@
         <v>102.7</v>
       </c>
       <c r="N40" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="O40" t="n" s="10">
         <v>101.9</v>
@@ -16385,7 +16385,7 @@
         <v>103.2</v>
       </c>
       <c r="T40" t="n" s="10">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="U40" t="n" s="10">
         <v>100.9</v>
@@ -16412,10 +16412,10 @@
         <v>102.2</v>
       </c>
       <c r="AC40" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AD40" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="AE40" t="n" s="10">
         <v>102.4</v>
@@ -16478,16 +16478,16 @@
         <v>98.2</v>
       </c>
       <c r="AY40" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="AZ40" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="BA40" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="BB40" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="BC40" t="n" s="10">
         <v>100.5</v>
@@ -16580,7 +16580,7 @@
         <v>95.7</v>
       </c>
       <c r="CG40" t="n" s="10">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="CH40" t="n" s="10">
         <v>93.0</v>
@@ -16601,7 +16601,7 @@
         <v>96.8</v>
       </c>
       <c r="CN40" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="CO40" t="n" s="10">
         <v>96.0</v>
@@ -16613,7 +16613,7 @@
         <v>97.6</v>
       </c>
       <c r="CR40" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="CS40" t="n" s="10">
         <v>97.2</v>
@@ -16646,7 +16646,7 @@
         <v>98.6</v>
       </c>
       <c r="DC40" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="DD40" t="n" s="10">
         <v>98.5</v>
@@ -16682,7 +16682,7 @@
         <v>100.1</v>
       </c>
       <c r="DO40" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="DP40" t="n" s="10">
         <v>98.3</v>
@@ -16709,7 +16709,7 @@
         <v>99.1</v>
       </c>
       <c r="DX40" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="DY40" t="n" s="10">
         <v>97.7</v>
@@ -16981,7 +16981,7 @@
         <v>94.9</v>
       </c>
       <c r="CG41" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="CH41" t="n" s="10">
         <v>95.2</v>
@@ -17056,7 +17056,7 @@
         <v>98.1</v>
       </c>
       <c r="DF41" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="DG41" t="n" s="10">
         <v>98.0</v>
@@ -18162,49 +18162,49 @@
         <v>98.2</v>
       </c>
       <c r="BW45" t="n" s="10">
-        <v>93.8</v>
+        <v>94.1</v>
       </c>
       <c r="BX45" t="n" s="10">
-        <v>95.7</v>
+        <v>96.0</v>
       </c>
       <c r="BY45" t="n" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="BZ45" t="n" s="10">
         <v>97.2</v>
       </c>
-      <c r="BZ45" t="n" s="10">
-        <v>97.3</v>
-      </c>
       <c r="CA45" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="CB45" t="n" s="10">
-        <v>98.9</v>
+        <v>98.7</v>
       </c>
       <c r="CC45" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="CD45" t="n" s="10">
-        <v>98.4</v>
+        <v>97.6</v>
       </c>
       <c r="CE45" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="CF45" t="n" s="10">
-        <v>97.6</v>
+        <v>97.4</v>
       </c>
       <c r="CG45" t="n" s="10">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="CH45" t="n" s="10">
-        <v>93.2</v>
+        <v>93.4</v>
       </c>
       <c r="CI45" t="n" s="10">
-        <v>97.6</v>
+        <v>97.9</v>
       </c>
       <c r="CJ45" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="CK45" t="n" s="10">
-        <v>95.2</v>
+        <v>95.6</v>
       </c>
       <c r="CL45" t="n" s="10">
         <v>96.1</v>
@@ -18213,52 +18213,52 @@
         <v>96.1</v>
       </c>
       <c r="CN45" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="CO45" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="CP45" t="n" s="10">
-        <v>98.0</v>
+        <v>97.4</v>
       </c>
       <c r="CQ45" t="n" s="10">
-        <v>96.2</v>
+        <v>96.0</v>
       </c>
       <c r="CR45" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="CS45" t="n" s="10">
-        <v>96.7</v>
+        <v>96.9</v>
       </c>
       <c r="CT45" t="n" s="10">
-        <v>94.9</v>
+        <v>95.1</v>
       </c>
       <c r="CU45" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="CV45" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="CW45" t="n" s="10">
-        <v>95.7</v>
+        <v>96.1</v>
       </c>
       <c r="CX45" t="n" s="10">
         <v>94.2</v>
       </c>
       <c r="CY45" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="CZ45" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="DA45" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="DB45" t="n" s="10">
-        <v>95.0</v>
+        <v>94.6</v>
       </c>
       <c r="DC45" t="n" s="10">
-        <v>94.7</v>
+        <v>94.4</v>
       </c>
       <c r="DD45" t="n" s="10">
         <v>95.0</v>
@@ -18267,16 +18267,16 @@
         <v>95.1</v>
       </c>
       <c r="DF45" t="n" s="10">
-        <v>96.2</v>
+        <v>96.6</v>
       </c>
       <c r="DG45" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="DH45" t="n" s="10">
         <v>95.5</v>
       </c>
       <c r="DI45" t="n" s="10">
-        <v>97.4</v>
+        <v>97.8</v>
       </c>
       <c r="DJ45" t="n" s="10">
         <v>100.3</v>
@@ -18285,25 +18285,25 @@
         <v>99.0</v>
       </c>
       <c r="DL45" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="DM45" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="DN45" t="n" s="10">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="DO45" t="n" s="10">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="DP45" t="n" s="10">
         <v>98.8</v>
       </c>
       <c r="DQ45" t="n" s="10">
-        <v>99.9</v>
+        <v>100.1</v>
       </c>
       <c r="DR45" t="n" s="10">
-        <v>99.4</v>
+        <v>99.8</v>
       </c>
       <c r="DS45" t="n" s="10">
         <v>100.4</v>
@@ -18312,34 +18312,34 @@
         <v>98.0</v>
       </c>
       <c r="DU45" t="n" s="10">
-        <v>98.8</v>
+        <v>99.0</v>
       </c>
       <c r="DV45" t="n" s="10">
         <v>97.4</v>
       </c>
       <c r="DW45" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="DX45" t="n" s="10">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="DY45" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="DZ45" t="n" s="10">
-        <v>98.0</v>
+        <v>97.8</v>
       </c>
       <c r="EA45" t="n" s="10">
-        <v>98.4</v>
+        <v>98.2</v>
       </c>
       <c r="EB45" t="n" s="10">
         <v>100.8</v>
       </c>
       <c r="EC45" t="n" s="10">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="ED45" t="n" s="10">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="46">
@@ -18356,7 +18356,7 @@
         <v>128.6</v>
       </c>
       <c r="F46" t="n" s="10">
-        <v>128.9</v>
+        <v>128.8</v>
       </c>
       <c r="G46" t="n" s="10">
         <v>126.4</v>
@@ -18380,7 +18380,7 @@
         <v>125.3</v>
       </c>
       <c r="N46" t="n" s="10">
-        <v>126.5</v>
+        <v>126.6</v>
       </c>
       <c r="O46" t="n" s="10">
         <v>119.6</v>
@@ -18416,7 +18416,7 @@
         <v>108.6</v>
       </c>
       <c r="Z46" t="n" s="10">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="AA46" t="n" s="10">
         <v>109.7</v>
@@ -18443,7 +18443,7 @@
         <v>111.1</v>
       </c>
       <c r="AI46" t="n" s="10">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="AJ46" t="n" s="10">
         <v>113.0</v>
@@ -18479,7 +18479,7 @@
         <v>111.4</v>
       </c>
       <c r="AU46" t="n" s="10">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="AV46" t="n" s="10">
         <v>108.5</v>
@@ -18503,7 +18503,7 @@
         <v>104.3</v>
       </c>
       <c r="BC46" t="n" s="10">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="BD46" t="n" s="10">
         <v>105.9</v>
@@ -18533,7 +18533,7 @@
         <v>102.4</v>
       </c>
       <c r="BM46" t="n" s="10">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="BN46" t="n" s="10">
         <v>104.2</v>
@@ -18611,7 +18611,7 @@
         <v>96.6</v>
       </c>
       <c r="CM46" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="CN46" t="n" s="10">
         <v>95.8</v>
@@ -18638,7 +18638,7 @@
         <v>95.8</v>
       </c>
       <c r="CV46" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="CW46" t="n" s="10">
         <v>96.1</v>
@@ -18647,7 +18647,7 @@
         <v>94.7</v>
       </c>
       <c r="CY46" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="CZ46" t="n" s="10">
         <v>95.9</v>
@@ -18719,7 +18719,7 @@
         <v>97.9</v>
       </c>
       <c r="DW46" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="DX46" t="n" s="10">
         <v>98.8</v>
@@ -18737,7 +18737,7 @@
         <v>100.3</v>
       </c>
       <c r="EC46" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="ED46" t="n" s="10">
         <v>100.7</v>
@@ -18763,7 +18763,7 @@
         <v>128.1</v>
       </c>
       <c r="H47" t="n" s="10">
-        <v>127.6</v>
+        <v>127.7</v>
       </c>
       <c r="I47" t="n" s="10">
         <v>127.1</v>
@@ -18868,7 +18868,7 @@
         <v>111.0</v>
       </c>
       <c r="AQ47" t="n" s="10">
-        <v>110.5</v>
+        <v>110.4</v>
       </c>
       <c r="AR47" t="n" s="10">
         <v>110.0</v>
@@ -18925,7 +18925,7 @@
         <v>105.2</v>
       </c>
       <c r="BJ47" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="BK47" t="n" s="10">
         <v>104.5</v>
@@ -18946,7 +18946,7 @@
         <v>101.1</v>
       </c>
       <c r="BQ47" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="BR47" t="n" s="10">
         <v>99.2</v>
@@ -19060,7 +19060,7 @@
         <v>95.4</v>
       </c>
       <c r="DC47" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="DD47" t="n" s="10">
         <v>95.8</v>
@@ -20463,7 +20463,7 @@
         <v>110.9</v>
       </c>
       <c r="AM51" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="AN51" t="n" s="10">
         <v>101.2</v>
@@ -20472,82 +20472,82 @@
         <v>103.5</v>
       </c>
       <c r="AP51" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AQ51" t="n" s="10">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="AR51" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AS51" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="AT51" t="n" s="10">
-        <v>101.8</v>
+        <v>102.7</v>
       </c>
       <c r="AU51" t="n" s="10">
         <v>102.9</v>
       </c>
       <c r="AV51" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="AW51" t="n" s="10">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="AX51" t="n" s="10">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="AY51" t="n" s="10">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="AZ51" t="n" s="10">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="BA51" t="n" s="10">
-        <v>109.6</v>
+        <v>109.4</v>
       </c>
       <c r="BB51" t="n" s="10">
-        <v>105.8</v>
+        <v>105.6</v>
       </c>
       <c r="BC51" t="n" s="10">
-        <v>109.5</v>
+        <v>109.3</v>
       </c>
       <c r="BD51" t="n" s="10">
-        <v>109.4</v>
+        <v>109.2</v>
       </c>
       <c r="BE51" t="n" s="10">
-        <v>114.2</v>
+        <v>114.3</v>
       </c>
       <c r="BF51" t="n" s="10">
-        <v>101.4</v>
+        <v>103.1</v>
       </c>
       <c r="BG51" t="n" s="10">
-        <v>104.4</v>
+        <v>104.2</v>
       </c>
       <c r="BH51" t="n" s="10">
-        <v>103.4</v>
+        <v>103.2</v>
       </c>
       <c r="BI51" t="n" s="10">
-        <v>98.9</v>
+        <v>98.7</v>
       </c>
       <c r="BJ51" t="n" s="10">
-        <v>96.2</v>
+        <v>96.0</v>
       </c>
       <c r="BK51" t="n" s="10">
-        <v>92.9</v>
+        <v>92.7</v>
       </c>
       <c r="BL51" t="n" s="10">
-        <v>91.9</v>
+        <v>91.7</v>
       </c>
       <c r="BM51" t="n" s="10">
-        <v>89.1</v>
+        <v>88.9</v>
       </c>
       <c r="BN51" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="BO51" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="BP51" t="n" s="10">
         <v>88.5</v>
@@ -20556,19 +20556,19 @@
         <v>88.7</v>
       </c>
       <c r="BR51" t="n" s="10">
-        <v>90.9</v>
+        <v>91.7</v>
       </c>
       <c r="BS51" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="BT51" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="BU51" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="BV51" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="BW51" t="n" s="10">
         <v>93.5</v>
@@ -20897,52 +20897,52 @@
         <v>106.1</v>
       </c>
       <c r="AX52" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="AY52" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="AZ52" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BA52" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="BB52" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BC52" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="AZ52" t="n" s="10">
-        <v>108.1</v>
-      </c>
-      <c r="BA52" t="n" s="10">
-        <v>108.3</v>
-      </c>
-      <c r="BB52" t="n" s="10">
-        <v>108.2</v>
-      </c>
-      <c r="BC52" t="n" s="10">
-        <v>107.9</v>
-      </c>
       <c r="BD52" t="n" s="10">
-        <v>107.1</v>
+        <v>106.7</v>
       </c>
       <c r="BE52" t="n" s="10">
-        <v>105.9</v>
+        <v>105.4</v>
       </c>
       <c r="BF52" t="n" s="10">
-        <v>104.4</v>
+        <v>103.9</v>
       </c>
       <c r="BG52" t="n" s="10">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="BH52" t="n" s="10">
-        <v>100.9</v>
+        <v>100.4</v>
       </c>
       <c r="BI52" t="n" s="10">
-        <v>98.9</v>
+        <v>98.5</v>
       </c>
       <c r="BJ52" t="n" s="10">
-        <v>96.9</v>
+        <v>96.6</v>
       </c>
       <c r="BK52" t="n" s="10">
-        <v>95.0</v>
+        <v>94.8</v>
       </c>
       <c r="BL52" t="n" s="10">
-        <v>93.4</v>
+        <v>93.2</v>
       </c>
       <c r="BM52" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="BN52" t="n" s="10">
         <v>90.8</v>
@@ -20954,10 +20954,10 @@
         <v>89.5</v>
       </c>
       <c r="BQ52" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="BR52" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="BS52" t="n" s="10">
         <v>90.1</v>
@@ -21125,7 +21125,7 @@
         <v>108.5</v>
       </c>
       <c r="DV52" t="n" s="10">
-        <v>108.1</v>
+        <v>108.0</v>
       </c>
       <c r="DW52" t="n" s="10">
         <v>107.6</v>
@@ -22183,31 +22183,31 @@
         <v>73.9</v>
       </c>
       <c r="BW56" t="n" s="10">
-        <v>74.4</v>
+        <v>74.6</v>
       </c>
       <c r="BX56" t="n" s="10">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="BY56" t="n" s="10">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="BZ56" t="n" s="10">
-        <v>76.9</v>
+        <v>77.1</v>
       </c>
       <c r="CA56" t="n" s="10">
-        <v>84.8</v>
+        <v>85.0</v>
       </c>
       <c r="CB56" t="n" s="10">
         <v>82.2</v>
       </c>
       <c r="CC56" t="n" s="10">
-        <v>78.0</v>
+        <v>77.8</v>
       </c>
       <c r="CD56" t="n" s="10">
-        <v>82.0</v>
+        <v>81.8</v>
       </c>
       <c r="CE56" t="n" s="10">
-        <v>79.3</v>
+        <v>79.1</v>
       </c>
       <c r="CF56" t="n" s="10">
         <v>78.0</v>
@@ -22216,79 +22216,79 @@
         <v>79.0</v>
       </c>
       <c r="CH56" t="n" s="10">
-        <v>80.0</v>
+        <v>79.8</v>
       </c>
       <c r="CI56" t="n" s="10">
-        <v>86.1</v>
+        <v>86.3</v>
       </c>
       <c r="CJ56" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="CK56" t="n" s="10">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="CL56" t="n" s="10">
-        <v>81.8</v>
+        <v>82.0</v>
       </c>
       <c r="CM56" t="n" s="10">
-        <v>85.5</v>
+        <v>85.8</v>
       </c>
       <c r="CN56" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="CO56" t="n" s="10">
-        <v>87.9</v>
+        <v>87.7</v>
       </c>
       <c r="CP56" t="n" s="10">
-        <v>88.9</v>
+        <v>88.7</v>
       </c>
       <c r="CQ56" t="n" s="10">
-        <v>87.4</v>
+        <v>87.2</v>
       </c>
       <c r="CR56" t="n" s="10">
         <v>88.0</v>
       </c>
       <c r="CS56" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="CT56" t="n" s="10">
-        <v>90.9</v>
+        <v>90.7</v>
       </c>
       <c r="CU56" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="CV56" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="CW56" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="CX56" t="n" s="10">
-        <v>95.2</v>
+        <v>95.4</v>
       </c>
       <c r="CY56" t="n" s="10">
-        <v>91.0</v>
+        <v>91.2</v>
       </c>
       <c r="CZ56" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="DA56" t="n" s="10">
-        <v>91.5</v>
+        <v>91.3</v>
       </c>
       <c r="DB56" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="DC56" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="DD56" t="n" s="10">
         <v>90.4</v>
       </c>
       <c r="DE56" t="n" s="10">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="DF56" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="DG56" t="n" s="10">
         <v>92.0</v>
@@ -22297,34 +22297,34 @@
         <v>91.3</v>
       </c>
       <c r="DI56" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="DJ56" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="DK56" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="DL56" t="n" s="10">
         <v>91.9</v>
       </c>
       <c r="DM56" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="DN56" t="n" s="10">
         <v>94.1</v>
       </c>
       <c r="DO56" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="DP56" t="n" s="10">
         <v>93.2</v>
       </c>
       <c r="DQ56" t="n" s="10">
-        <v>92.9</v>
+        <v>93.1</v>
       </c>
       <c r="DR56" t="n" s="10">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="DS56" t="n" s="10">
         <v>94.4</v>
@@ -22333,7 +22333,7 @@
         <v>91.1</v>
       </c>
       <c r="DU56" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="DV56" t="n" s="10">
         <v>95.1</v>
@@ -22345,10 +22345,10 @@
         <v>94.3</v>
       </c>
       <c r="DY56" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="DZ56" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="EA56" t="n" s="10">
         <v>99.1</v>
@@ -22357,10 +22357,10 @@
         <v>99.7</v>
       </c>
       <c r="EC56" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="ED56" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="57">
@@ -22368,13 +22368,13 @@
         <v>35</v>
       </c>
       <c r="C57" t="n" s="10">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="D57" t="n" s="10">
         <v>33.6</v>
       </c>
       <c r="E57" t="n" s="10">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="F57" t="n" s="10">
         <v>34.1</v>
@@ -22383,7 +22383,7 @@
         <v>35.2</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>35.3</v>
@@ -22398,10 +22398,10 @@
         <v>36.8</v>
       </c>
       <c r="M57" t="n" s="10">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="N57" t="n" s="10">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="O57" t="n" s="10">
         <v>37.9</v>
@@ -22410,28 +22410,28 @@
         <v>38.7</v>
       </c>
       <c r="Q57" t="n" s="10">
-        <v>40.0</v>
+        <v>40.2</v>
       </c>
       <c r="R57" t="n" s="10">
-        <v>40.0</v>
+        <v>39.7</v>
       </c>
       <c r="S57" t="n" s="10">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="T57" t="n" s="10">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U57" t="n" s="10">
         <v>43.4</v>
       </c>
       <c r="V57" t="n" s="10">
-        <v>42.0</v>
+        <v>41.9</v>
       </c>
       <c r="W57" t="n" s="10">
-        <v>43.1</v>
+        <v>43.0</v>
       </c>
       <c r="X57" t="n" s="10">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="Y57" t="n" s="10">
         <v>43.1</v>
@@ -22440,22 +22440,22 @@
         <v>43.8</v>
       </c>
       <c r="AA57" t="n" s="10">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="AB57" t="n" s="10">
         <v>43.5</v>
       </c>
       <c r="AC57" t="n" s="10">
-        <v>43.2</v>
+        <v>43.0</v>
       </c>
       <c r="AD57" t="n" s="10">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="AE57" t="n" s="10">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="AF57" t="n" s="10">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="AG57" t="n" s="10">
         <v>44.7</v>
@@ -22467,25 +22467,25 @@
         <v>49.6</v>
       </c>
       <c r="AJ57" t="n" s="10">
-        <v>49.9</v>
+        <v>50.0</v>
       </c>
       <c r="AK57" t="n" s="10">
         <v>51.4</v>
       </c>
       <c r="AL57" t="n" s="10">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="AM57" t="n" s="10">
         <v>53.0</v>
       </c>
       <c r="AN57" t="n" s="10">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="AO57" t="n" s="10">
-        <v>56.9</v>
+        <v>56.8</v>
       </c>
       <c r="AP57" t="n" s="10">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="AQ57" t="n" s="10">
         <v>57.1</v>
@@ -22497,52 +22497,52 @@
         <v>62.3</v>
       </c>
       <c r="AT57" t="n" s="10">
-        <v>60.0</v>
+        <v>59.9</v>
       </c>
       <c r="AU57" t="n" s="10">
-        <v>61.8</v>
+        <v>62.0</v>
       </c>
       <c r="AV57" t="n" s="10">
-        <v>63.0</v>
+        <v>62.9</v>
       </c>
       <c r="AW57" t="n" s="10">
-        <v>63.3</v>
+        <v>63.2</v>
       </c>
       <c r="AX57" t="n" s="10">
-        <v>65.5</v>
+        <v>65.7</v>
       </c>
       <c r="AY57" t="n" s="10">
-        <v>63.6</v>
+        <v>63.5</v>
       </c>
       <c r="AZ57" t="n" s="10">
-        <v>64.5</v>
+        <v>64.4</v>
       </c>
       <c r="BA57" t="n" s="10">
-        <v>66.4</v>
+        <v>66.7</v>
       </c>
       <c r="BB57" t="n" s="10">
-        <v>68.5</v>
+        <v>68.3</v>
       </c>
       <c r="BC57" t="n" s="10">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="BD57" t="n" s="10">
-        <v>68.1</v>
+        <v>68.0</v>
       </c>
       <c r="BE57" t="n" s="10">
-        <v>67.0</v>
+        <v>66.9</v>
       </c>
       <c r="BF57" t="n" s="10">
-        <v>69.5</v>
+        <v>69.7</v>
       </c>
       <c r="BG57" t="n" s="10">
-        <v>69.4</v>
+        <v>69.3</v>
       </c>
       <c r="BH57" t="n" s="10">
         <v>70.3</v>
       </c>
       <c r="BI57" t="n" s="10">
-        <v>70.6</v>
+        <v>70.8</v>
       </c>
       <c r="BJ57" t="n" s="10">
         <v>70.8</v>
@@ -22554,37 +22554,37 @@
         <v>71.3</v>
       </c>
       <c r="BM57" t="n" s="10">
-        <v>70.7</v>
+        <v>70.6</v>
       </c>
       <c r="BN57" t="n" s="10">
-        <v>70.7</v>
+        <v>70.8</v>
       </c>
       <c r="BO57" t="n" s="10">
-        <v>69.7</v>
+        <v>69.8</v>
       </c>
       <c r="BP57" t="n" s="10">
-        <v>70.8</v>
+        <v>70.9</v>
       </c>
       <c r="BQ57" t="n" s="10">
         <v>74.1</v>
       </c>
       <c r="BR57" t="n" s="10">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="BS57" t="n" s="10">
         <v>74.0</v>
       </c>
       <c r="BT57" t="n" s="10">
-        <v>74.1</v>
+        <v>74.0</v>
       </c>
       <c r="BU57" t="n" s="10">
-        <v>75.4</v>
+        <v>75.3</v>
       </c>
       <c r="BV57" t="n" s="10">
         <v>74.3</v>
       </c>
       <c r="BW57" t="n" s="10">
-        <v>73.4</v>
+        <v>73.5</v>
       </c>
       <c r="BX57" t="n" s="10">
         <v>76.8</v>
@@ -22593,127 +22593,127 @@
         <v>78.0</v>
       </c>
       <c r="BZ57" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="CA57" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="CB57" t="n" s="10">
-        <v>81.1</v>
+        <v>80.9</v>
       </c>
       <c r="CC57" t="n" s="10">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="CD57" t="n" s="10">
+        <v>79.9</v>
+      </c>
+      <c r="CE57" t="n" s="10">
+        <v>79.6</v>
+      </c>
+      <c r="CF57" t="n" s="10">
+        <v>80.1</v>
+      </c>
+      <c r="CG57" t="n" s="10">
         <v>80.0</v>
       </c>
-      <c r="CE57" t="n" s="10">
-        <v>79.7</v>
-      </c>
-      <c r="CF57" t="n" s="10">
-        <v>80.3</v>
-      </c>
-      <c r="CG57" t="n" s="10">
-        <v>80.2</v>
-      </c>
       <c r="CH57" t="n" s="10">
-        <v>79.8</v>
+        <v>80.6</v>
       </c>
       <c r="CI57" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="CJ57" t="n" s="10">
         <v>82.4</v>
       </c>
       <c r="CK57" t="n" s="10">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="CL57" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="CM57" t="n" s="10">
-        <v>84.7</v>
+        <v>84.2</v>
       </c>
       <c r="CN57" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="CO57" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="CP57" t="n" s="10">
-        <v>88.1</v>
+        <v>87.9</v>
       </c>
       <c r="CQ57" t="n" s="10">
-        <v>88.3</v>
+        <v>88.0</v>
       </c>
       <c r="CR57" t="n" s="10">
         <v>88.8</v>
       </c>
       <c r="CS57" t="n" s="10">
-        <v>88.8</v>
+        <v>88.5</v>
       </c>
       <c r="CT57" t="n" s="10">
+        <v>93.9</v>
+      </c>
+      <c r="CU57" t="n" s="10">
+        <v>88.3</v>
+      </c>
+      <c r="CV57" t="n" s="10">
+        <v>89.9</v>
+      </c>
+      <c r="CW57" t="n" s="10">
+        <v>91.7</v>
+      </c>
+      <c r="CX57" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="CY57" t="n" s="10">
+        <v>90.4</v>
+      </c>
+      <c r="CZ57" t="n" s="10">
+        <v>94.9</v>
+      </c>
+      <c r="DA57" t="n" s="10">
+        <v>91.8</v>
+      </c>
+      <c r="DB57" t="n" s="10">
+        <v>90.2</v>
+      </c>
+      <c r="DC57" t="n" s="10">
+        <v>90.6</v>
+      </c>
+      <c r="DD57" t="n" s="10">
+        <v>91.3</v>
+      </c>
+      <c r="DE57" t="n" s="10">
         <v>92.2</v>
       </c>
-      <c r="CU57" t="n" s="10">
-        <v>88.6</v>
-      </c>
-      <c r="CV57" t="n" s="10">
-        <v>90.2</v>
-      </c>
-      <c r="CW57" t="n" s="10">
-        <v>92.0</v>
-      </c>
-      <c r="CX57" t="n" s="10">
+      <c r="DF57" t="n" s="10">
+        <v>93.4</v>
+      </c>
+      <c r="DG57" t="n" s="10">
         <v>92.1</v>
-      </c>
-      <c r="CY57" t="n" s="10">
-        <v>90.5</v>
-      </c>
-      <c r="CZ57" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="DA57" t="n" s="10">
-        <v>91.9</v>
-      </c>
-      <c r="DB57" t="n" s="10">
-        <v>90.3</v>
-      </c>
-      <c r="DC57" t="n" s="10">
-        <v>90.5</v>
-      </c>
-      <c r="DD57" t="n" s="10">
-        <v>91.4</v>
-      </c>
-      <c r="DE57" t="n" s="10">
-        <v>92.3</v>
-      </c>
-      <c r="DF57" t="n" s="10">
-        <v>92.3</v>
-      </c>
-      <c r="DG57" t="n" s="10">
-        <v>92.2</v>
       </c>
       <c r="DH57" t="n" s="10">
         <v>92.5</v>
       </c>
       <c r="DI57" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="DJ57" t="n" s="10">
-        <v>92.0</v>
+        <v>91.8</v>
       </c>
       <c r="DK57" t="n" s="10">
+        <v>91.7</v>
+      </c>
+      <c r="DL57" t="n" s="10">
         <v>91.6</v>
       </c>
-      <c r="DL57" t="n" s="10">
-        <v>91.7</v>
-      </c>
       <c r="DM57" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="DN57" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="DO57" t="n" s="10">
         <v>94.6</v>
@@ -22725,13 +22725,13 @@
         <v>92.9</v>
       </c>
       <c r="DR57" t="n" s="10">
-        <v>91.4</v>
+        <v>92.0</v>
       </c>
       <c r="DS57" t="n" s="10">
         <v>93.6</v>
       </c>
       <c r="DT57" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="DU57" t="n" s="10">
         <v>91.2</v>
@@ -22740,28 +22740,28 @@
         <v>95.7</v>
       </c>
       <c r="DW57" t="n" s="10">
-        <v>98.1</v>
+        <v>97.9</v>
       </c>
       <c r="DX57" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="DY57" t="n" s="10">
-        <v>97.6</v>
+        <v>97.4</v>
       </c>
       <c r="DZ57" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="EA57" t="n" s="10">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="EB57" t="n" s="10">
+        <v>98.8</v>
+      </c>
+      <c r="EC57" t="n" s="10">
         <v>99.1</v>
       </c>
-      <c r="EC57" t="n" s="10">
-        <v>99.2</v>
-      </c>
       <c r="ED57" t="n" s="10">
-        <v>99.4</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="58">
@@ -22784,13 +22784,13 @@
         <v>34.4</v>
       </c>
       <c r="H58" t="n" s="10">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="I58" t="n" s="10">
         <v>35.3</v>
       </c>
       <c r="J58" t="n" s="10">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="K58" t="n" s="10">
         <v>36.2</v>
@@ -22805,7 +22805,7 @@
         <v>37.5</v>
       </c>
       <c r="O58" t="n" s="10">
-        <v>38.1</v>
+        <v>38.0</v>
       </c>
       <c r="P58" t="n" s="10">
         <v>38.6</v>
@@ -22817,16 +22817,16 @@
         <v>39.9</v>
       </c>
       <c r="S58" t="n" s="10">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="T58" t="n" s="10">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U58" t="n" s="10">
         <v>41.9</v>
       </c>
       <c r="V58" t="n" s="10">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="W58" t="n" s="10">
         <v>42.9</v>
@@ -22835,16 +22835,16 @@
         <v>43.2</v>
       </c>
       <c r="Y58" t="n" s="10">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="Z58" t="n" s="10">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="AA58" t="n" s="10">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="AB58" t="n" s="10">
-        <v>44.0</v>
+        <v>43.9</v>
       </c>
       <c r="AC58" t="n" s="10">
         <v>44.4</v>
@@ -22874,10 +22874,10 @@
         <v>51.3</v>
       </c>
       <c r="AL58" t="n" s="10">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="AM58" t="n" s="10">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="AN58" t="n" s="10">
         <v>54.6</v>
@@ -22895,19 +22895,19 @@
         <v>59.2</v>
       </c>
       <c r="AS58" t="n" s="10">
-        <v>60.2</v>
+        <v>60.3</v>
       </c>
       <c r="AT58" t="n" s="10">
         <v>61.2</v>
       </c>
       <c r="AU58" t="n" s="10">
-        <v>62.0</v>
+        <v>62.1</v>
       </c>
       <c r="AV58" t="n" s="10">
         <v>62.9</v>
       </c>
       <c r="AW58" t="n" s="10">
-        <v>63.6</v>
+        <v>63.7</v>
       </c>
       <c r="AX58" t="n" s="10">
         <v>64.3</v>
@@ -22958,10 +22958,10 @@
         <v>71.2</v>
       </c>
       <c r="BN58" t="n" s="10">
-        <v>71.4</v>
+        <v>71.5</v>
       </c>
       <c r="BO58" t="n" s="10">
-        <v>71.7</v>
+        <v>71.8</v>
       </c>
       <c r="BP58" t="n" s="10">
         <v>72.1</v>
@@ -22979,7 +22979,7 @@
         <v>74.0</v>
       </c>
       <c r="BU58" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="BV58" t="n" s="10">
         <v>75.1</v>
@@ -23000,22 +23000,22 @@
         <v>78.4</v>
       </c>
       <c r="CB58" t="n" s="10">
-        <v>79.0</v>
+        <v>78.9</v>
       </c>
       <c r="CC58" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="CD58" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="CE58" t="n" s="10">
-        <v>80.2</v>
+        <v>80.1</v>
       </c>
       <c r="CF58" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="CG58" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="CH58" t="n" s="10">
         <v>81.3</v>
@@ -23027,55 +23027,55 @@
         <v>82.2</v>
       </c>
       <c r="CK58" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="CL58" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="CM58" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="CN58" t="n" s="10">
-        <v>85.2</v>
+        <v>85.0</v>
       </c>
       <c r="CO58" t="n" s="10">
-        <v>86.2</v>
+        <v>85.9</v>
       </c>
       <c r="CP58" t="n" s="10">
-        <v>87.1</v>
+        <v>86.8</v>
       </c>
       <c r="CQ58" t="n" s="10">
-        <v>87.9</v>
+        <v>87.6</v>
       </c>
       <c r="CR58" t="n" s="10">
-        <v>88.7</v>
+        <v>88.3</v>
       </c>
       <c r="CS58" t="n" s="10">
-        <v>89.3</v>
+        <v>88.8</v>
       </c>
       <c r="CT58" t="n" s="10">
-        <v>89.9</v>
+        <v>89.4</v>
       </c>
       <c r="CU58" t="n" s="10">
-        <v>90.3</v>
+        <v>89.8</v>
       </c>
       <c r="CV58" t="n" s="10">
+        <v>90.2</v>
+      </c>
+      <c r="CW58" t="n" s="10">
         <v>90.7</v>
       </c>
-      <c r="CW58" t="n" s="10">
+      <c r="CX58" t="n" s="10">
         <v>91.1</v>
       </c>
-      <c r="CX58" t="n" s="10">
+      <c r="CY58" t="n" s="10">
         <v>91.4</v>
       </c>
-      <c r="CY58" t="n" s="10">
-        <v>91.6</v>
-      </c>
       <c r="CZ58" t="n" s="10">
+        <v>91.7</v>
+      </c>
+      <c r="DA58" t="n" s="10">
         <v>91.9</v>
-      </c>
-      <c r="DA58" t="n" s="10">
-        <v>92.0</v>
       </c>
       <c r="DB58" t="n" s="10">
         <v>92.0</v>
@@ -23087,25 +23087,25 @@
         <v>92.1</v>
       </c>
       <c r="DE58" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="DF58" t="n" s="10">
-        <v>92.0</v>
+        <v>92.2</v>
       </c>
       <c r="DG58" t="n" s="10">
         <v>92.1</v>
       </c>
       <c r="DH58" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="DI58" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="DJ58" t="n" s="10">
         <v>92.4</v>
       </c>
       <c r="DK58" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="DL58" t="n" s="10">
         <v>92.6</v>
@@ -23114,7 +23114,7 @@
         <v>92.8</v>
       </c>
       <c r="DN58" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="DO58" t="n" s="10">
         <v>93.0</v>
@@ -23123,16 +23123,16 @@
         <v>93.0</v>
       </c>
       <c r="DQ58" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="DR58" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="DS58" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="DT58" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="DU58" t="n" s="10">
         <v>94.0</v>
@@ -23144,25 +23144,25 @@
         <v>95.4</v>
       </c>
       <c r="DX58" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="DY58" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="DZ58" t="n" s="10">
-        <v>97.2</v>
+        <v>97.0</v>
       </c>
       <c r="EA58" t="n" s="10">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="EB58" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="EC58" t="n" s="10">
-        <v>98.6</v>
+        <v>98.4</v>
       </c>
       <c r="ED58" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="59">
@@ -24421,13 +24421,13 @@
         <v>86.2</v>
       </c>
       <c r="R62" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="S62" t="n" s="10">
         <v>84.9</v>
       </c>
       <c r="T62" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="U62" t="n" s="10">
         <v>89.5</v>
@@ -24454,7 +24454,7 @@
         <v>85.9</v>
       </c>
       <c r="AC62" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="AD62" t="n" s="10">
         <v>88.6</v>
@@ -24481,7 +24481,7 @@
         <v>92.2</v>
       </c>
       <c r="AL62" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="AM62" t="n" s="10">
         <v>90.8</v>
@@ -24499,7 +24499,7 @@
         <v>93.6</v>
       </c>
       <c r="AR62" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="AS62" t="n" s="10">
         <v>99.7</v>
@@ -24511,10 +24511,10 @@
         <v>97.0</v>
       </c>
       <c r="AV62" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AW62" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="AX62" t="n" s="10">
         <v>99.6</v>
@@ -24523,13 +24523,13 @@
         <v>98.5</v>
       </c>
       <c r="AZ62" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="BA62" t="n" s="10">
         <v>101.6</v>
       </c>
       <c r="BB62" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="BC62" t="n" s="10">
         <v>103.0</v>
@@ -24541,7 +24541,7 @@
         <v>99.1</v>
       </c>
       <c r="BF62" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="BG62" t="n" s="10">
         <v>101.1</v>
@@ -24559,13 +24559,13 @@
         <v>104.0</v>
       </c>
       <c r="BL62" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="BM62" t="n" s="10">
         <v>99.6</v>
       </c>
       <c r="BN62" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="BO62" t="n" s="10">
         <v>98.3</v>
@@ -24583,7 +24583,7 @@
         <v>101.8</v>
       </c>
       <c r="BT62" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="BU62" t="n" s="10">
         <v>103.7</v>
@@ -24634,13 +24634,13 @@
         <v>104.5</v>
       </c>
       <c r="CK62" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="CL62" t="n" s="10">
         <v>103.7</v>
       </c>
       <c r="CM62" t="n" s="10">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="CN62" t="n" s="10">
         <v>101.0</v>
@@ -24649,13 +24649,13 @@
         <v>104.7</v>
       </c>
       <c r="CP62" t="n" s="10">
-        <v>104.1</v>
+        <v>104.0</v>
       </c>
       <c r="CQ62" t="n" s="10">
         <v>103.6</v>
       </c>
       <c r="CR62" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="CS62" t="n" s="10">
         <v>103.6</v>
@@ -24667,7 +24667,7 @@
         <v>102.5</v>
       </c>
       <c r="CV62" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="CW62" t="n" s="10">
         <v>105.7</v>
@@ -24679,7 +24679,7 @@
         <v>104.0</v>
       </c>
       <c r="CZ62" t="n" s="10">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="DA62" t="n" s="10">
         <v>104.2</v>
@@ -24688,10 +24688,10 @@
         <v>102.6</v>
       </c>
       <c r="DC62" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="DD62" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="DE62" t="n" s="10">
         <v>102.5</v>
@@ -24751,7 +24751,7 @@
         <v>101.2</v>
       </c>
       <c r="DX62" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="DY62" t="n" s="10">
         <v>100.6</v>
@@ -24837,10 +24837,10 @@
         <v>87.3</v>
       </c>
       <c r="W63" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="X63" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="Y63" t="n" s="10">
         <v>87.2</v>
@@ -24915,7 +24915,7 @@
         <v>98.0</v>
       </c>
       <c r="AW63" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="AX63" t="n" s="10">
         <v>99.0</v>
@@ -24975,7 +24975,7 @@
         <v>100.9</v>
       </c>
       <c r="BQ63" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="BR63" t="n" s="10">
         <v>101.2</v>
@@ -25038,7 +25038,7 @@
         <v>103.8</v>
       </c>
       <c r="CL63" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="CM63" t="n" s="10">
         <v>103.4</v>
@@ -25146,7 +25146,7 @@
         <v>98.2</v>
       </c>
       <c r="DV63" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="DW63" t="n" s="10">
         <v>98.8</v>
@@ -25809,7 +25809,7 @@
         <v>83.6</v>
       </c>
       <c r="BY66" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="BZ66" t="n" s="10">
         <v>104.5</v>
@@ -25830,7 +25830,7 @@
         <v>99.0</v>
       </c>
       <c r="CF66" t="n" s="10">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="CG66" t="n" s="10">
         <v>107.8</v>
@@ -25851,7 +25851,7 @@
         <v>108.4</v>
       </c>
       <c r="CM66" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="CN66" t="n" s="10">
         <v>99.0</v>
@@ -25866,7 +25866,7 @@
         <v>101.6</v>
       </c>
       <c r="CR66" t="n" s="10">
-        <v>111.0</v>
+        <v>110.9</v>
       </c>
       <c r="CS66" t="n" s="10">
         <v>110.3</v>
@@ -25911,7 +25911,7 @@
         <v>105.7</v>
       </c>
       <c r="DG66" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="DH66" t="n" s="10">
         <v>86.0</v>
@@ -25920,13 +25920,13 @@
         <v>104.0</v>
       </c>
       <c r="DJ66" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="DK66" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="DL66" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DM66" t="n" s="10">
         <v>99.8</v>
@@ -25950,10 +25950,10 @@
         <v>86.1</v>
       </c>
       <c r="DT66" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="DU66" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="DV66" t="n" s="10">
         <v>102.8</v>
@@ -26204,7 +26204,7 @@
         <v>99.0</v>
       </c>
       <c r="BW67" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="BX67" t="n" s="10">
         <v>97.5</v>
@@ -26213,121 +26213,121 @@
         <v>99.5</v>
       </c>
       <c r="BZ67" t="n" s="10">
-        <v>99.0</v>
+        <v>99.4</v>
       </c>
       <c r="CA67" t="n" s="10">
         <v>103.1</v>
       </c>
       <c r="CB67" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="CC67" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="CD67" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="CE67" t="n" s="10">
-        <v>99.6</v>
+        <v>99.2</v>
       </c>
       <c r="CF67" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="CG67" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="CH67" t="n" s="10">
-        <v>99.1</v>
+        <v>99.9</v>
       </c>
       <c r="CI67" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="CJ67" t="n" s="10">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="CK67" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="CL67" t="n" s="10">
-        <v>102.8</v>
+        <v>103.1</v>
       </c>
       <c r="CM67" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="CN67" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="CO67" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="CP67" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="CQ67" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="CR67" t="n" s="10">
+        <v>103.5</v>
+      </c>
+      <c r="CS67" t="n" s="10">
         <v>102.4</v>
       </c>
-      <c r="CQ67" t="n" s="10">
-        <v>102.5</v>
-      </c>
-      <c r="CR67" t="n" s="10">
-        <v>103.6</v>
-      </c>
-      <c r="CS67" t="n" s="10">
-        <v>102.5</v>
-      </c>
       <c r="CT67" t="n" s="10">
-        <v>105.7</v>
+        <v>107.0</v>
       </c>
       <c r="CU67" t="n" s="10">
-        <v>102.0</v>
+        <v>101.8</v>
       </c>
       <c r="CV67" t="n" s="10">
         <v>100.0</v>
       </c>
       <c r="CW67" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="CX67" t="n" s="10">
         <v>101.9</v>
       </c>
       <c r="CY67" t="n" s="10">
+        <v>102.0</v>
+      </c>
+      <c r="CZ67" t="n" s="10">
         <v>102.1</v>
       </c>
-      <c r="CZ67" t="n" s="10">
-        <v>102.2</v>
-      </c>
       <c r="DA67" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="DB67" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="DC67" t="n" s="10">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="DD67" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="DE67" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="DF67" t="n" s="10">
-        <v>100.0</v>
+        <v>100.9</v>
       </c>
       <c r="DG67" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="DH67" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="DI67" t="n" s="10">
         <v>97.2</v>
       </c>
       <c r="DJ67" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="DK67" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="DL67" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="DM67" t="n" s="10">
         <v>100.2</v>
@@ -26336,7 +26336,7 @@
         <v>98.3</v>
       </c>
       <c r="DO67" t="n" s="10">
-        <v>100.2</v>
+        <v>100.0</v>
       </c>
       <c r="DP67" t="n" s="10">
         <v>98.6</v>
@@ -26345,22 +26345,22 @@
         <v>99.3</v>
       </c>
       <c r="DR67" t="n" s="10">
-        <v>96.7</v>
+        <v>97.1</v>
       </c>
       <c r="DS67" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="DT67" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="DU67" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="DV67" t="n" s="10">
         <v>98.1</v>
       </c>
       <c r="DW67" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="DX67" t="n" s="10">
         <v>97.3</v>
@@ -26470,7 +26470,7 @@
         <v>103.6</v>
       </c>
       <c r="AD68" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AE68" t="n" s="10">
         <v>107.9</v>
@@ -26539,7 +26539,7 @@
         <v>107.2</v>
       </c>
       <c r="BA68" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="BB68" t="n" s="10">
         <v>103.2</v>
@@ -26611,7 +26611,7 @@
         <v>98.1</v>
       </c>
       <c r="BY68" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="BZ68" t="n" s="10">
         <v>97.5</v>
@@ -26719,7 +26719,7 @@
         <v>99.9</v>
       </c>
       <c r="DI68" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="DJ68" t="n" s="10">
         <v>100.4</v>
@@ -26961,7 +26961,7 @@
         <v>102.6</v>
       </c>
       <c r="BH69" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="BI69" t="n" s="10">
         <v>101.5</v>
@@ -27817,7 +27817,7 @@
         <v>80.3</v>
       </c>
       <c r="BY71" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="BZ71" t="n" s="10">
         <v>100.4</v>
@@ -27838,7 +27838,7 @@
         <v>95.1</v>
       </c>
       <c r="CF71" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="CG71" t="n" s="10">
         <v>103.9</v>
@@ -27859,7 +27859,7 @@
         <v>104.8</v>
       </c>
       <c r="CM71" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="CN71" t="n" s="10">
         <v>95.8</v>
@@ -27874,7 +27874,7 @@
         <v>98.7</v>
       </c>
       <c r="CR71" t="n" s="10">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="CS71" t="n" s="10">
         <v>107.2</v>
@@ -27919,7 +27919,7 @@
         <v>103.7</v>
       </c>
       <c r="DG71" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="DH71" t="n" s="10">
         <v>84.6</v>
@@ -27928,13 +27928,13 @@
         <v>102.7</v>
       </c>
       <c r="DJ71" t="n" s="10">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="DK71" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="DL71" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="DM71" t="n" s="10">
         <v>98.9</v>
@@ -27958,10 +27958,10 @@
         <v>85.1</v>
       </c>
       <c r="DT71" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="DU71" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="DV71" t="n" s="10">
         <v>102.4</v>
@@ -28212,7 +28212,7 @@
         <v>94.6</v>
       </c>
       <c r="BW72" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="BX72" t="n" s="10">
         <v>93.7</v>
@@ -28221,121 +28221,121 @@
         <v>95.5</v>
       </c>
       <c r="BZ72" t="n" s="10">
-        <v>95.0</v>
+        <v>95.4</v>
       </c>
       <c r="CA72" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="CB72" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="CC72" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="CD72" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="CE72" t="n" s="10">
-        <v>95.7</v>
+        <v>95.3</v>
       </c>
       <c r="CF72" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="CG72" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="CH72" t="n" s="10">
-        <v>95.6</v>
+        <v>96.4</v>
       </c>
       <c r="CI72" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="CJ72" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="CK72" t="n" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="CL72" t="n" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="CM72" t="n" s="10">
         <v>97.6</v>
       </c>
-      <c r="CL72" t="n" s="10">
+      <c r="CN72" t="n" s="10">
+        <v>98.8</v>
+      </c>
+      <c r="CO72" t="n" s="10">
+        <v>99.0</v>
+      </c>
+      <c r="CP72" t="n" s="10">
+        <v>99.4</v>
+      </c>
+      <c r="CQ72" t="n" s="10">
+        <v>99.2</v>
+      </c>
+      <c r="CR72" t="n" s="10">
+        <v>100.5</v>
+      </c>
+      <c r="CS72" t="n" s="10">
+        <v>99.6</v>
+      </c>
+      <c r="CT72" t="n" s="10">
+        <v>104.2</v>
+      </c>
+      <c r="CU72" t="n" s="10">
         <v>99.3</v>
-      </c>
-      <c r="CM72" t="n" s="10">
-        <v>97.7</v>
-      </c>
-      <c r="CN72" t="n" s="10">
-        <v>98.9</v>
-      </c>
-      <c r="CO72" t="n" s="10">
-        <v>99.1</v>
-      </c>
-      <c r="CP72" t="n" s="10">
-        <v>99.6</v>
-      </c>
-      <c r="CQ72" t="n" s="10">
-        <v>99.6</v>
-      </c>
-      <c r="CR72" t="n" s="10">
-        <v>100.6</v>
-      </c>
-      <c r="CS72" t="n" s="10">
-        <v>99.7</v>
-      </c>
-      <c r="CT72" t="n" s="10">
-        <v>102.9</v>
-      </c>
-      <c r="CU72" t="n" s="10">
-        <v>99.5</v>
       </c>
       <c r="CV72" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="CW72" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="CX72" t="n" s="10">
         <v>99.8</v>
       </c>
       <c r="CY72" t="n" s="10">
+        <v>99.9</v>
+      </c>
+      <c r="CZ72" t="n" s="10">
         <v>100.0</v>
       </c>
-      <c r="CZ72" t="n" s="10">
-        <v>100.1</v>
-      </c>
       <c r="DA72" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="DB72" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="DC72" t="n" s="10">
+        <v>100.3</v>
+      </c>
+      <c r="DD72" t="n" s="10">
         <v>100.5</v>
       </c>
-      <c r="DD72" t="n" s="10">
-        <v>100.6</v>
-      </c>
       <c r="DE72" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="DF72" t="n" s="10">
-        <v>98.3</v>
+        <v>99.2</v>
       </c>
       <c r="DG72" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="DH72" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="DI72" t="n" s="10">
         <v>95.8</v>
       </c>
       <c r="DJ72" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="DK72" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="DL72" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="DM72" t="n" s="10">
         <v>99.3</v>
@@ -28344,7 +28344,7 @@
         <v>97.2</v>
       </c>
       <c r="DO72" t="n" s="10">
-        <v>99.2</v>
+        <v>99.0</v>
       </c>
       <c r="DP72" t="n" s="10">
         <v>97.6</v>
@@ -28353,22 +28353,22 @@
         <v>98.2</v>
       </c>
       <c r="DR72" t="n" s="10">
-        <v>95.5</v>
+        <v>95.9</v>
       </c>
       <c r="DS72" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="DT72" t="n" s="10">
         <v>99.6</v>
       </c>
       <c r="DU72" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="DV72" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="DW72" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="DX72" t="n" s="10">
         <v>96.7</v>
@@ -28520,7 +28520,7 @@
         <v>93.2</v>
       </c>
       <c r="AR73" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="AS73" t="n" s="10">
         <v>95.4</v>
@@ -28571,7 +28571,7 @@
         <v>95.3</v>
       </c>
       <c r="BI73" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="BJ73" t="n" s="10">
         <v>95.4</v>
@@ -28766,7 +28766,7 @@
         <v>99.1</v>
       </c>
       <c r="DV73" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="DW73" t="n" s="10">
         <v>96.7</v>
@@ -30416,7 +30416,7 @@
         <v>78.7</v>
       </c>
       <c r="E79" t="n" s="10">
-        <v>81.2</v>
+        <v>81.4</v>
       </c>
       <c r="F79" t="n" s="10">
         <v>76.9</v>
@@ -30425,7 +30425,7 @@
         <v>74.7</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>77.4</v>
@@ -30443,7 +30443,7 @@
         <v>75.9</v>
       </c>
       <c r="N79" t="n" s="10">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="O79" t="n" s="10">
         <v>80.0</v>
@@ -30452,25 +30452,25 @@
         <v>77.9</v>
       </c>
       <c r="Q79" t="n" s="10">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="R79" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="S79" t="n" s="10">
         <v>79.3</v>
       </c>
       <c r="T79" t="n" s="10">
-        <v>75.1</v>
+        <v>75.2</v>
       </c>
       <c r="U79" t="n" s="10">
         <v>77.3</v>
       </c>
       <c r="V79" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="W79" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="X79" t="n" s="10">
         <v>79.5</v>
@@ -30479,7 +30479,7 @@
         <v>79.0</v>
       </c>
       <c r="Z79" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="AA79" t="n" s="10">
         <v>77.0</v>
@@ -30488,13 +30488,13 @@
         <v>77.6</v>
       </c>
       <c r="AC79" t="n" s="10">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="AD79" t="n" s="10">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="AE79" t="n" s="10">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="AF79" t="n" s="10">
         <v>78.7</v>
@@ -30515,10 +30515,10 @@
         <v>76.3</v>
       </c>
       <c r="AL79" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="AM79" t="n" s="10">
-        <v>70.9</v>
+        <v>70.8</v>
       </c>
       <c r="AN79" t="n" s="10">
         <v>71.7</v>
@@ -30527,7 +30527,7 @@
         <v>71.1</v>
       </c>
       <c r="AP79" t="n" s="10">
-        <v>71.9</v>
+        <v>71.8</v>
       </c>
       <c r="AQ79" t="n" s="10">
         <v>71.6</v>
@@ -30542,7 +30542,7 @@
         <v>69.5</v>
       </c>
       <c r="AU79" t="n" s="10">
-        <v>69.4</v>
+        <v>69.3</v>
       </c>
       <c r="AV79" t="n" s="10">
         <v>70.0</v>
@@ -30551,43 +30551,43 @@
         <v>68.5</v>
       </c>
       <c r="AX79" t="n" s="10">
-        <v>69.0</v>
+        <v>68.9</v>
       </c>
       <c r="AY79" t="n" s="10">
         <v>74.7</v>
       </c>
       <c r="AZ79" t="n" s="10">
-        <v>73.0</v>
+        <v>73.1</v>
       </c>
       <c r="BA79" t="n" s="10">
+        <v>72.0</v>
+      </c>
+      <c r="BB79" t="n" s="10">
+        <v>73.1</v>
+      </c>
+      <c r="BC79" t="n" s="10">
         <v>72.2</v>
       </c>
-      <c r="BB79" t="n" s="10">
-        <v>73.0</v>
-      </c>
-      <c r="BC79" t="n" s="10">
-        <v>72.3</v>
-      </c>
       <c r="BD79" t="n" s="10">
-        <v>70.4</v>
+        <v>70.5</v>
       </c>
       <c r="BE79" t="n" s="10">
         <v>74.6</v>
       </c>
       <c r="BF79" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="BG79" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="BH79" t="n" s="10">
         <v>75.3</v>
       </c>
       <c r="BI79" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="BJ79" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="BK79" t="n" s="10">
         <v>71.7</v>
@@ -30605,7 +30605,7 @@
         <v>68.9</v>
       </c>
       <c r="BP79" t="n" s="10">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="BQ79" t="n" s="10">
         <v>65.2</v>
@@ -30617,7 +30617,7 @@
         <v>64.1</v>
       </c>
       <c r="BT79" t="n" s="10">
-        <v>63.6</v>
+        <v>63.7</v>
       </c>
       <c r="BU79" t="n" s="10">
         <v>61.8</v>
@@ -30638,10 +30638,10 @@
         <v>64.7</v>
       </c>
       <c r="CA79" t="n" s="10">
-        <v>67.1</v>
+        <v>67.0</v>
       </c>
       <c r="CB79" t="n" s="10">
-        <v>66.5</v>
+        <v>66.6</v>
       </c>
       <c r="CC79" t="n" s="10">
         <v>67.0</v>
@@ -30650,16 +30650,16 @@
         <v>67.3</v>
       </c>
       <c r="CE79" t="n" s="10">
-        <v>66.6</v>
+        <v>66.7</v>
       </c>
       <c r="CF79" t="n" s="10">
-        <v>66.1</v>
+        <v>66.2</v>
       </c>
       <c r="CG79" t="n" s="10">
         <v>67.8</v>
       </c>
       <c r="CH79" t="n" s="10">
-        <v>66.5</v>
+        <v>66.6</v>
       </c>
       <c r="CI79" t="n" s="10">
         <v>66.9</v>
@@ -30674,19 +30674,19 @@
         <v>67.3</v>
       </c>
       <c r="CM79" t="n" s="10">
-        <v>65.8</v>
+        <v>66.0</v>
       </c>
       <c r="CN79" t="n" s="10">
-        <v>67.0</v>
+        <v>66.9</v>
       </c>
       <c r="CO79" t="n" s="10">
-        <v>68.7</v>
+        <v>68.6</v>
       </c>
       <c r="CP79" t="n" s="10">
         <v>71.4</v>
       </c>
       <c r="CQ79" t="n" s="10">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="CR79" t="n" s="10">
         <v>70.7</v>
@@ -30698,16 +30698,16 @@
         <v>68.4</v>
       </c>
       <c r="CU79" t="n" s="10">
-        <v>69.5</v>
+        <v>69.6</v>
       </c>
       <c r="CV79" t="n" s="10">
-        <v>71.9</v>
+        <v>72.0</v>
       </c>
       <c r="CW79" t="n" s="10">
         <v>70.1</v>
       </c>
       <c r="CX79" t="n" s="10">
-        <v>70.0</v>
+        <v>69.9</v>
       </c>
       <c r="CY79" t="n" s="10">
         <v>71.8</v>
@@ -30722,34 +30722,34 @@
         <v>70.0</v>
       </c>
       <c r="DC79" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="DD79" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="DE79" t="n" s="10">
         <v>74.3</v>
       </c>
       <c r="DF79" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="DG79" t="n" s="10">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="DH79" t="n" s="10">
         <v>74.8</v>
       </c>
       <c r="DI79" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="DJ79" t="n" s="10">
         <v>78.6</v>
       </c>
       <c r="DK79" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="DL79" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="DM79" t="n" s="10">
         <v>77.2</v>
@@ -30761,13 +30761,13 @@
         <v>78.4</v>
       </c>
       <c r="DP79" t="n" s="10">
-        <v>77.9</v>
+        <v>77.8</v>
       </c>
       <c r="DQ79" t="n" s="10">
         <v>79.8</v>
       </c>
       <c r="DR79" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="DS79" t="n" s="10">
         <v>79.2</v>
@@ -30776,34 +30776,34 @@
         <v>79.2</v>
       </c>
       <c r="DU79" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="DV79" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="DW79" t="n" s="10">
         <v>77.4</v>
       </c>
       <c r="DX79" t="n" s="10">
-        <v>80.0</v>
+        <v>79.8</v>
       </c>
       <c r="DY79" t="n" s="10">
-        <v>79.3</v>
+        <v>79.1</v>
       </c>
       <c r="DZ79" t="n" s="10">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="EA79" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="EB79" t="n" s="10">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="EC79" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="ED79" t="n" s="10">
         <v>82.2</v>
-      </c>
-      <c r="ED79" t="n" s="10">
-        <v>80.8</v>
       </c>
     </row>
     <row r="80">
@@ -30829,7 +30829,7 @@
         <v>76.8</v>
       </c>
       <c r="I80" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="J80" t="n" s="10">
         <v>76.3</v>
@@ -30841,10 +30841,10 @@
         <v>76.0</v>
       </c>
       <c r="M80" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="N80" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="O80" t="n" s="10">
         <v>76.5</v>
@@ -30862,7 +30862,7 @@
         <v>77.7</v>
       </c>
       <c r="T80" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="U80" t="n" s="10">
         <v>78.1</v>
@@ -30871,7 +30871,7 @@
         <v>78.3</v>
       </c>
       <c r="W80" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="X80" t="n" s="10">
         <v>78.3</v>
@@ -30892,7 +30892,7 @@
         <v>78.1</v>
       </c>
       <c r="AD80" t="n" s="10">
-        <v>78.0</v>
+        <v>78.1</v>
       </c>
       <c r="AE80" t="n" s="10">
         <v>77.9</v>
@@ -30904,7 +30904,7 @@
         <v>77.2</v>
       </c>
       <c r="AH80" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="AI80" t="n" s="10">
         <v>76.3</v>
@@ -30916,7 +30916,7 @@
         <v>75.2</v>
       </c>
       <c r="AL80" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="AM80" t="n" s="10">
         <v>73.6</v>
@@ -30934,7 +30934,7 @@
         <v>71.1</v>
       </c>
       <c r="AR80" t="n" s="10">
-        <v>70.8</v>
+        <v>70.7</v>
       </c>
       <c r="AS80" t="n" s="10">
         <v>70.5</v>
@@ -31042,10 +31042,10 @@
         <v>65.8</v>
       </c>
       <c r="CB80" t="n" s="10">
-        <v>66.1</v>
+        <v>66.2</v>
       </c>
       <c r="CC80" t="n" s="10">
-        <v>66.3</v>
+        <v>66.4</v>
       </c>
       <c r="CD80" t="n" s="10">
         <v>66.5</v>
@@ -31063,7 +31063,7 @@
         <v>66.8</v>
       </c>
       <c r="CI80" t="n" s="10">
-        <v>66.8</v>
+        <v>66.9</v>
       </c>
       <c r="CJ80" t="n" s="10">
         <v>67.0</v>
@@ -31072,7 +31072,7 @@
         <v>67.2</v>
       </c>
       <c r="CL80" t="n" s="10">
-        <v>67.3</v>
+        <v>67.4</v>
       </c>
       <c r="CM80" t="n" s="10">
         <v>67.6</v>
@@ -31081,7 +31081,7 @@
         <v>67.8</v>
       </c>
       <c r="CO80" t="n" s="10">
-        <v>68.2</v>
+        <v>68.3</v>
       </c>
       <c r="CP80" t="n" s="10">
         <v>68.6</v>
@@ -31105,10 +31105,10 @@
         <v>70.6</v>
       </c>
       <c r="CW80" t="n" s="10">
-        <v>70.8</v>
+        <v>70.9</v>
       </c>
       <c r="CX80" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="CY80" t="n" s="10">
         <v>71.5</v>
@@ -31120,7 +31120,7 @@
         <v>72.5</v>
       </c>
       <c r="DB80" t="n" s="10">
-        <v>73.1</v>
+        <v>73.0</v>
       </c>
       <c r="DC80" t="n" s="10">
         <v>73.8</v>
@@ -31129,7 +31129,7 @@
         <v>74.5</v>
       </c>
       <c r="DE80" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="DF80" t="n" s="10">
         <v>75.6</v>
@@ -31153,13 +31153,13 @@
         <v>77.7</v>
       </c>
       <c r="DM80" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="DN80" t="n" s="10">
         <v>78.2</v>
       </c>
       <c r="DO80" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="DP80" t="n" s="10">
         <v>78.6</v>
@@ -31186,7 +31186,7 @@
         <v>79.6</v>
       </c>
       <c r="DX80" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="DY80" t="n" s="10">
         <v>80.2</v>
@@ -31204,7 +31204,7 @@
         <v>83.5</v>
       </c>
       <c r="ED80" t="n" s="10">
-        <v>84.9</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="81">
@@ -32424,7 +32424,7 @@
         <v>69.1</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>71.5</v>
+        <v>71.7</v>
       </c>
       <c r="F84" t="n" s="10">
         <v>69.0</v>
@@ -32433,10 +32433,10 @@
         <v>68.5</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="I84" t="n" s="10">
-        <v>70.5</v>
+        <v>70.6</v>
       </c>
       <c r="J84" t="n" s="10">
         <v>68.6</v>
@@ -32448,10 +32448,10 @@
         <v>68.2</v>
       </c>
       <c r="M84" t="n" s="10">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>68.8</v>
+        <v>68.9</v>
       </c>
       <c r="O84" t="n" s="10">
         <v>73.9</v>
@@ -32460,34 +32460,34 @@
         <v>72.3</v>
       </c>
       <c r="Q84" t="n" s="10">
-        <v>71.8</v>
+        <v>71.6</v>
       </c>
       <c r="R84" t="n" s="10">
-        <v>72.5</v>
+        <v>72.7</v>
       </c>
       <c r="S84" t="n" s="10">
-        <v>73.8</v>
+        <v>73.7</v>
       </c>
       <c r="T84" t="n" s="10">
-        <v>71.2</v>
+        <v>71.3</v>
       </c>
       <c r="U84" t="n" s="10">
-        <v>73.4</v>
+        <v>73.3</v>
       </c>
       <c r="V84" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="W84" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="X84" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="Y84" t="n" s="10">
         <v>75.7</v>
       </c>
       <c r="Z84" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="AA84" t="n" s="10">
         <v>74.5</v>
@@ -32496,16 +32496,16 @@
         <v>75.3</v>
       </c>
       <c r="AC84" t="n" s="10">
-        <v>75.8</v>
+        <v>75.9</v>
       </c>
       <c r="AD84" t="n" s="10">
-        <v>75.1</v>
+        <v>74.9</v>
       </c>
       <c r="AE84" t="n" s="10">
-        <v>75.4</v>
+        <v>75.5</v>
       </c>
       <c r="AF84" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="AG84" t="n" s="10">
         <v>74.7</v>
@@ -32523,7 +32523,7 @@
         <v>72.5</v>
       </c>
       <c r="AL84" t="n" s="10">
-        <v>72.7</v>
+        <v>72.6</v>
       </c>
       <c r="AM84" t="n" s="10">
         <v>66.4</v>
@@ -32532,10 +32532,10 @@
         <v>67.3</v>
       </c>
       <c r="AO84" t="n" s="10">
-        <v>66.5</v>
+        <v>66.6</v>
       </c>
       <c r="AP84" t="n" s="10">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="AQ84" t="n" s="10">
         <v>66.9</v>
@@ -32547,52 +32547,52 @@
         <v>65.1</v>
       </c>
       <c r="AT84" t="n" s="10">
-        <v>64.5</v>
+        <v>64.6</v>
       </c>
       <c r="AU84" t="n" s="10">
-        <v>64.8</v>
+        <v>64.6</v>
       </c>
       <c r="AV84" t="n" s="10">
         <v>66.0</v>
       </c>
       <c r="AW84" t="n" s="10">
-        <v>66.6</v>
+        <v>66.7</v>
       </c>
       <c r="AX84" t="n" s="10">
-        <v>68.2</v>
+        <v>68.1</v>
       </c>
       <c r="AY84" t="n" s="10">
         <v>74.2</v>
       </c>
       <c r="AZ84" t="n" s="10">
-        <v>73.1</v>
+        <v>73.2</v>
       </c>
       <c r="BA84" t="n" s="10">
-        <v>73.0</v>
+        <v>72.8</v>
       </c>
       <c r="BB84" t="n" s="10">
-        <v>74.0</v>
+        <v>74.2</v>
       </c>
       <c r="BC84" t="n" s="10">
         <v>73.7</v>
       </c>
       <c r="BD84" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="BE84" t="n" s="10">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="BF84" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="BG84" t="n" s="10">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="BH84" t="n" s="10">
         <v>76.6</v>
       </c>
       <c r="BI84" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="BJ84" t="n" s="10">
         <v>73.4</v>
@@ -32604,19 +32604,19 @@
         <v>67.7</v>
       </c>
       <c r="BM84" t="n" s="10">
-        <v>67.5</v>
+        <v>67.6</v>
       </c>
       <c r="BN84" t="n" s="10">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="BO84" t="n" s="10">
         <v>64.1</v>
       </c>
       <c r="BP84" t="n" s="10">
-        <v>64.0</v>
+        <v>63.9</v>
       </c>
       <c r="BQ84" t="n" s="10">
-        <v>60.1</v>
+        <v>60.2</v>
       </c>
       <c r="BR84" t="n" s="10">
         <v>58.3</v>
@@ -32625,7 +32625,7 @@
         <v>59.6</v>
       </c>
       <c r="BT84" t="n" s="10">
-        <v>60.1</v>
+        <v>60.2</v>
       </c>
       <c r="BU84" t="n" s="10">
         <v>59.0</v>
@@ -32634,7 +32634,7 @@
         <v>60.8</v>
       </c>
       <c r="BW84" t="n" s="10">
-        <v>63.3</v>
+        <v>63.2</v>
       </c>
       <c r="BX84" t="n" s="10">
         <v>63.5</v>
@@ -32643,13 +32643,13 @@
         <v>64.7</v>
       </c>
       <c r="BZ84" t="n" s="10">
-        <v>64.0</v>
+        <v>64.1</v>
       </c>
       <c r="CA84" t="n" s="10">
-        <v>66.4</v>
+        <v>66.3</v>
       </c>
       <c r="CB84" t="n" s="10">
-        <v>66.1</v>
+        <v>66.3</v>
       </c>
       <c r="CC84" t="n" s="10">
         <v>66.3</v>
@@ -32667,7 +32667,7 @@
         <v>68.1</v>
       </c>
       <c r="CH84" t="n" s="10">
-        <v>67.8</v>
+        <v>67.9</v>
       </c>
       <c r="CI84" t="n" s="10">
         <v>68.1</v>
@@ -32682,19 +32682,19 @@
         <v>69.3</v>
       </c>
       <c r="CM84" t="n" s="10">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="CN84" t="n" s="10">
-        <v>69.0</v>
+        <v>68.9</v>
       </c>
       <c r="CO84" t="n" s="10">
         <v>71.5</v>
       </c>
       <c r="CP84" t="n" s="10">
-        <v>74.8</v>
+        <v>74.9</v>
       </c>
       <c r="CQ84" t="n" s="10">
-        <v>72.3</v>
+        <v>72.4</v>
       </c>
       <c r="CR84" t="n" s="10">
         <v>73.9</v>
@@ -32703,19 +32703,19 @@
         <v>73.2</v>
       </c>
       <c r="CT84" t="n" s="10">
-        <v>71.9</v>
+        <v>72.0</v>
       </c>
       <c r="CU84" t="n" s="10">
         <v>73.4</v>
       </c>
       <c r="CV84" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="CW84" t="n" s="10">
         <v>74.0</v>
       </c>
       <c r="CX84" t="n" s="10">
-        <v>73.9</v>
+        <v>73.8</v>
       </c>
       <c r="CY84" t="n" s="10">
         <v>76.2</v>
@@ -32730,37 +32730,37 @@
         <v>74.8</v>
       </c>
       <c r="DC84" t="n" s="10">
-        <v>79.0</v>
+        <v>78.9</v>
       </c>
       <c r="DD84" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="DE84" t="n" s="10">
         <v>79.8</v>
       </c>
       <c r="DF84" t="n" s="10">
-        <v>82.4</v>
+        <v>82.2</v>
       </c>
       <c r="DG84" t="n" s="10">
         <v>81.3</v>
       </c>
       <c r="DH84" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="DI84" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="DJ84" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="DK84" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="DL84" t="n" s="10">
         <v>80.9</v>
       </c>
       <c r="DM84" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="DN84" t="n" s="10">
         <v>82.3</v>
@@ -32772,7 +32772,7 @@
         <v>81.5</v>
       </c>
       <c r="DQ84" t="n" s="10">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="DR84" t="n" s="10">
         <v>83.2</v>
@@ -32790,25 +32790,25 @@
         <v>85.1</v>
       </c>
       <c r="DW84" t="n" s="10">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="DX84" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="DY84" t="n" s="10">
         <v>82.2</v>
       </c>
       <c r="DZ84" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="EA84" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="EB84" t="n" s="10">
         <v>84.7</v>
       </c>
       <c r="EC84" t="n" s="10">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="ED84" t="n" s="10">
         <v>82.2</v>
@@ -32840,13 +32840,13 @@
         <v>69.7</v>
       </c>
       <c r="J85" t="n" s="10">
-        <v>69.7</v>
+        <v>69.8</v>
       </c>
       <c r="K85" t="n" s="10">
         <v>69.8</v>
       </c>
       <c r="L85" t="n" s="10">
-        <v>69.9</v>
+        <v>70.0</v>
       </c>
       <c r="M85" t="n" s="10">
         <v>70.2</v>
@@ -32861,19 +32861,19 @@
         <v>71.6</v>
       </c>
       <c r="Q85" t="n" s="10">
-        <v>72.1</v>
+        <v>72.2</v>
       </c>
       <c r="R85" t="n" s="10">
         <v>72.7</v>
       </c>
       <c r="S85" t="n" s="10">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="T85" t="n" s="10">
         <v>73.7</v>
       </c>
       <c r="U85" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="V85" t="n" s="10">
         <v>74.6</v>
@@ -32891,13 +32891,13 @@
         <v>75.3</v>
       </c>
       <c r="AA85" t="n" s="10">
-        <v>75.4</v>
+        <v>75.5</v>
       </c>
       <c r="AB85" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="AC85" t="n" s="10">
-        <v>75.6</v>
+        <v>75.7</v>
       </c>
       <c r="AD85" t="n" s="10">
         <v>75.6</v>
@@ -32912,10 +32912,10 @@
         <v>74.4</v>
       </c>
       <c r="AH85" t="n" s="10">
-        <v>73.8</v>
+        <v>73.7</v>
       </c>
       <c r="AI85" t="n" s="10">
-        <v>73.1</v>
+        <v>73.0</v>
       </c>
       <c r="AJ85" t="n" s="10">
         <v>72.3</v>
@@ -32927,7 +32927,7 @@
         <v>70.4</v>
       </c>
       <c r="AM85" t="n" s="10">
-        <v>69.4</v>
+        <v>69.3</v>
       </c>
       <c r="AN85" t="n" s="10">
         <v>68.3</v>
@@ -32996,7 +32996,7 @@
         <v>73.8</v>
       </c>
       <c r="BJ85" t="n" s="10">
-        <v>72.5</v>
+        <v>72.4</v>
       </c>
       <c r="BK85" t="n" s="10">
         <v>70.9</v>
@@ -33005,13 +33005,13 @@
         <v>69.2</v>
       </c>
       <c r="BM85" t="n" s="10">
-        <v>67.6</v>
+        <v>67.5</v>
       </c>
       <c r="BN85" t="n" s="10">
-        <v>65.9</v>
+        <v>65.8</v>
       </c>
       <c r="BO85" t="n" s="10">
-        <v>64.3</v>
+        <v>64.2</v>
       </c>
       <c r="BP85" t="n" s="10">
         <v>62.9</v>
@@ -33059,10 +33059,10 @@
         <v>66.3</v>
       </c>
       <c r="CE85" t="n" s="10">
-        <v>66.6</v>
+        <v>66.7</v>
       </c>
       <c r="CF85" t="n" s="10">
-        <v>66.9</v>
+        <v>67.0</v>
       </c>
       <c r="CG85" t="n" s="10">
         <v>67.3</v>
@@ -33071,13 +33071,13 @@
         <v>67.7</v>
       </c>
       <c r="CI85" t="n" s="10">
-        <v>68.0</v>
+        <v>68.1</v>
       </c>
       <c r="CJ85" t="n" s="10">
-        <v>68.4</v>
+        <v>68.5</v>
       </c>
       <c r="CK85" t="n" s="10">
-        <v>68.9</v>
+        <v>69.0</v>
       </c>
       <c r="CL85" t="n" s="10">
         <v>69.4</v>
@@ -33089,7 +33089,7 @@
         <v>70.5</v>
       </c>
       <c r="CO85" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="CP85" t="n" s="10">
         <v>71.8</v>
@@ -33098,19 +33098,19 @@
         <v>72.3</v>
       </c>
       <c r="CR85" t="n" s="10">
-        <v>72.8</v>
+        <v>72.9</v>
       </c>
       <c r="CS85" t="n" s="10">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="CT85" t="n" s="10">
-        <v>73.6</v>
+        <v>73.7</v>
       </c>
       <c r="CU85" t="n" s="10">
         <v>74.2</v>
       </c>
       <c r="CV85" t="n" s="10">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="CW85" t="n" s="10">
         <v>75.1</v>
@@ -33152,16 +33152,16 @@
         <v>81.6</v>
       </c>
       <c r="DJ85" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="DK85" t="n" s="10">
         <v>82.1</v>
       </c>
       <c r="DL85" t="n" s="10">
+        <v>82.1</v>
+      </c>
+      <c r="DM85" t="n" s="10">
         <v>82.2</v>
-      </c>
-      <c r="DM85" t="n" s="10">
-        <v>82.3</v>
       </c>
       <c r="DN85" t="n" s="10">
         <v>82.4</v>
@@ -33182,34 +33182,34 @@
         <v>82.7</v>
       </c>
       <c r="DT85" t="n" s="10">
+        <v>82.7</v>
+      </c>
+      <c r="DU85" t="n" s="10">
         <v>82.8</v>
       </c>
-      <c r="DU85" t="n" s="10">
-        <v>82.9</v>
-      </c>
       <c r="DV85" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="DW85" t="n" s="10">
         <v>82.8</v>
       </c>
       <c r="DX85" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="DY85" t="n" s="10">
         <v>83.0</v>
       </c>
       <c r="DZ85" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="EA85" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="EB85" t="n" s="10">
         <v>84.4</v>
       </c>
       <c r="EC85" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="ED85" t="n" s="10">
         <v>86.4</v>
@@ -34452,7 +34452,7 @@
         <v>93.1</v>
       </c>
       <c r="J90" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="K90" t="n" s="10">
         <v>92.5</v>
@@ -34461,7 +34461,7 @@
         <v>92.9</v>
       </c>
       <c r="M90" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="N90" t="n" s="10">
         <v>92.9</v>
@@ -34572,7 +34572,7 @@
         <v>92.4</v>
       </c>
       <c r="AX90" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="AY90" t="n" s="10">
         <v>95.0</v>
@@ -34581,7 +34581,7 @@
         <v>94.2</v>
       </c>
       <c r="BA90" t="n" s="10">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="BB90" t="n" s="10">
         <v>90.8</v>
@@ -34599,7 +34599,7 @@
         <v>91.1</v>
       </c>
       <c r="BG90" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="BH90" t="n" s="10">
         <v>90.5</v>
@@ -34623,7 +34623,7 @@
         <v>92.3</v>
       </c>
       <c r="BO90" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="BP90" t="n" s="10">
         <v>90.0</v>
@@ -34722,7 +34722,7 @@
         <v>91.8</v>
       </c>
       <c r="CV90" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="CW90" t="n" s="10">
         <v>94.1</v>
@@ -34743,7 +34743,7 @@
         <v>91.6</v>
       </c>
       <c r="DC90" t="n" s="10">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="DD90" t="n" s="10">
         <v>91.3</v>
@@ -34758,7 +34758,7 @@
         <v>91.3</v>
       </c>
       <c r="DH90" t="n" s="10">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="DI90" t="n" s="10">
         <v>91.1</v>
@@ -34767,7 +34767,7 @@
         <v>90.8</v>
       </c>
       <c r="DK90" t="n" s="10">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="DL90" t="n" s="10">
         <v>91.0</v>
@@ -34776,7 +34776,7 @@
         <v>92.0</v>
       </c>
       <c r="DN90" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="DO90" t="n" s="10">
         <v>91.9</v>
@@ -34788,7 +34788,7 @@
         <v>93.5</v>
       </c>
       <c r="DR90" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DS90" t="n" s="10">
         <v>92.4</v>
@@ -34880,7 +34880,7 @@
         <v>93.9</v>
       </c>
       <c r="S91" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="T91" t="n" s="10">
         <v>94.0</v>
@@ -35096,7 +35096,7 @@
         <v>91.0</v>
       </c>
       <c r="CM91" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="CN91" t="n" s="10">
         <v>91.3</v>
@@ -35177,7 +35177,7 @@
         <v>91.8</v>
       </c>
       <c r="DN91" t="n" s="10">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="DO91" t="n" s="10">
         <v>92.1</v>
@@ -36481,7 +36481,7 @@
         <v>86.5</v>
       </c>
       <c r="Q95" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="R95" t="n" s="10">
         <v>86.3</v>
@@ -36523,7 +36523,7 @@
         <v>89.7</v>
       </c>
       <c r="AE95" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="AF95" t="n" s="10">
         <v>89.4</v>
@@ -36544,7 +36544,7 @@
         <v>90.6</v>
       </c>
       <c r="AL95" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AM95" t="n" s="10">
         <v>86.2</v>
@@ -36598,7 +36598,7 @@
         <v>88.4</v>
       </c>
       <c r="BD95" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="BE95" t="n" s="10">
         <v>86.7</v>
@@ -36676,7 +36676,7 @@
         <v>86.1</v>
       </c>
       <c r="CD95" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="CE95" t="n" s="10">
         <v>86.1</v>
@@ -36697,7 +36697,7 @@
         <v>88.6</v>
       </c>
       <c r="CK95" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="CL95" t="n" s="10">
         <v>89.6</v>
@@ -36715,7 +36715,7 @@
         <v>89.0</v>
       </c>
       <c r="CQ95" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="CR95" t="n" s="10">
         <v>90.0</v>
@@ -36775,7 +36775,7 @@
         <v>90.3</v>
       </c>
       <c r="DK95" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="DL95" t="n" s="10">
         <v>90.7</v>
@@ -36873,7 +36873,7 @@
         <v>86.0</v>
       </c>
       <c r="N96" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="O96" t="n" s="10">
         <v>86.3</v>
@@ -37071,7 +37071,7 @@
         <v>84.4</v>
       </c>
       <c r="CB96" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="CC96" t="n" s="10">
         <v>85.3</v>
@@ -37095,7 +37095,7 @@
         <v>87.3</v>
       </c>
       <c r="CJ96" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="CK96" t="n" s="10">
         <v>87.8</v>
@@ -37113,7 +37113,7 @@
         <v>88.8</v>
       </c>
       <c r="CP96" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="CQ96" t="n" s="10">
         <v>89.5</v>
@@ -37158,7 +37158,7 @@
         <v>90.6</v>
       </c>
       <c r="DE96" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="DF96" t="n" s="10">
         <v>90.5</v>
@@ -37212,7 +37212,7 @@
         <v>92.4</v>
       </c>
       <c r="DW96" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="DX96" t="n" s="10">
         <v>92.7</v>
@@ -38563,7 +38563,7 @@
         <v>103.5</v>
       </c>
       <c r="AN101" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AO101" t="n" s="10">
         <v>104.7</v>
@@ -38587,7 +38587,7 @@
         <v>99.4</v>
       </c>
       <c r="AV101" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="AW101" t="n" s="10">
         <v>100.6</v>
@@ -38638,7 +38638,7 @@
         <v>94.9</v>
       </c>
       <c r="BM101" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="BN101" t="n" s="10">
         <v>98.9</v>
@@ -38740,7 +38740,7 @@
         <v>96.2</v>
       </c>
       <c r="CU101" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="CV101" t="n" s="10">
         <v>97.0</v>
@@ -38761,7 +38761,7 @@
         <v>94.3</v>
       </c>
       <c r="DB101" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="DC101" t="n" s="10">
         <v>96.4</v>
@@ -38824,7 +38824,7 @@
         <v>100.2</v>
       </c>
       <c r="DW101" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="DX101" t="n" s="10">
         <v>98.0</v>
@@ -38976,7 +38976,7 @@
         <v>101.9</v>
       </c>
       <c r="AR102" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AS102" t="n" s="10">
         <v>101.3</v>
@@ -39102,7 +39102,7 @@
         <v>95.5</v>
       </c>
       <c r="CH102" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="CI102" t="n" s="10">
         <v>95.6</v>
@@ -40493,7 +40493,7 @@
         <v>86.7</v>
       </c>
       <c r="N106" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="O106" t="n" s="10">
         <v>86.4</v>
@@ -40538,7 +40538,7 @@
         <v>88.0</v>
       </c>
       <c r="AC106" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="AD106" t="n" s="10">
         <v>88.2</v>
@@ -40592,7 +40592,7 @@
         <v>88.0</v>
       </c>
       <c r="AU106" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="AV106" t="n" s="10">
         <v>88.5</v>
@@ -40607,7 +40607,7 @@
         <v>88.1</v>
       </c>
       <c r="AZ106" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="BA106" t="n" s="10">
         <v>88.4</v>
@@ -40634,7 +40634,7 @@
         <v>88.8</v>
       </c>
       <c r="BI106" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="BJ106" t="n" s="10">
         <v>88.3</v>
@@ -40655,7 +40655,7 @@
         <v>86.9</v>
       </c>
       <c r="BP106" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="BQ106" t="n" s="10">
         <v>86.0</v>
@@ -40688,10 +40688,10 @@
         <v>84.5</v>
       </c>
       <c r="CA106" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="CB106" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="CC106" t="n" s="10">
         <v>89.0</v>
@@ -40730,13 +40730,13 @@
         <v>88.8</v>
       </c>
       <c r="CO106" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="CP106" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="CQ106" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="CR106" t="n" s="10">
         <v>89.8</v>
@@ -40772,7 +40772,7 @@
         <v>92.8</v>
       </c>
       <c r="DC106" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="DD106" t="n" s="10">
         <v>93.1</v>
@@ -40790,7 +40790,7 @@
         <v>93.5</v>
       </c>
       <c r="DI106" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="DJ106" t="n" s="10">
         <v>92.2</v>
@@ -40832,10 +40832,10 @@
         <v>99.3</v>
       </c>
       <c r="DW106" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="DX106" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="DY106" t="n" s="10">
         <v>96.6</v>
@@ -40861,7 +40861,7 @@
         <v>36</v>
       </c>
       <c r="C107" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="D107" t="n" s="10">
         <v>84.6</v>
@@ -41035,7 +41035,7 @@
         <v>88.2</v>
       </c>
       <c r="BI107" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="BJ107" t="n" s="10">
         <v>87.7</v>
@@ -41098,7 +41098,7 @@
         <v>87.2</v>
       </c>
       <c r="CD107" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="CE107" t="n" s="10">
         <v>87.4</v>
@@ -41125,7 +41125,7 @@
         <v>88.9</v>
       </c>
       <c r="CM107" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="CN107" t="n" s="10">
         <v>89.4</v>
@@ -41143,7 +41143,7 @@
         <v>90.3</v>
       </c>
       <c r="CS107" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="CT107" t="n" s="10">
         <v>90.8</v>
@@ -41158,7 +41158,7 @@
         <v>91.5</v>
       </c>
       <c r="CX107" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="CY107" t="n" s="10">
         <v>91.9</v>
@@ -41236,7 +41236,7 @@
         <v>97.1</v>
       </c>
       <c r="DX107" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="DY107" t="n" s="10">
         <v>97.3</v>
@@ -42479,7 +42479,7 @@
         <v>93.5</v>
       </c>
       <c r="E112" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="F112" t="n" s="10">
         <v>93.3</v>
@@ -42500,7 +42500,7 @@
         <v>94.1</v>
       </c>
       <c r="L112" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="M112" t="n" s="10">
         <v>95.7</v>
@@ -42524,7 +42524,7 @@
         <v>95.5</v>
       </c>
       <c r="T112" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="U112" t="n" s="10">
         <v>96.9</v>
@@ -42584,7 +42584,7 @@
         <v>99.3</v>
       </c>
       <c r="AN112" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="AO112" t="n" s="10">
         <v>105.4</v>
@@ -42596,7 +42596,7 @@
         <v>96.2</v>
       </c>
       <c r="AR112" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AS112" t="n" s="10">
         <v>101.3</v>
@@ -42614,7 +42614,7 @@
         <v>100.7</v>
       </c>
       <c r="AX112" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="AY112" t="n" s="10">
         <v>103.5</v>
@@ -42623,10 +42623,10 @@
         <v>105.5</v>
       </c>
       <c r="BA112" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="BB112" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="BC112" t="n" s="10">
         <v>109.0</v>
@@ -42641,7 +42641,7 @@
         <v>102.8</v>
       </c>
       <c r="BG112" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="BH112" t="n" s="10">
         <v>99.7</v>
@@ -42671,7 +42671,7 @@
         <v>96.1</v>
       </c>
       <c r="BQ112" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="BR112" t="n" s="10">
         <v>94.7</v>
@@ -42680,7 +42680,7 @@
         <v>95.5</v>
       </c>
       <c r="BT112" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="BU112" t="n" s="10">
         <v>96.0</v>
@@ -42692,7 +42692,7 @@
         <v>98.6</v>
       </c>
       <c r="BX112" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="BY112" t="n" s="10">
         <v>104.2</v>
@@ -42704,7 +42704,7 @@
         <v>97.9</v>
       </c>
       <c r="CB112" t="n" s="10">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="CC112" t="n" s="10">
         <v>101.2</v>
@@ -42722,7 +42722,7 @@
         <v>103.8</v>
       </c>
       <c r="CH112" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="CI112" t="n" s="10">
         <v>101.9</v>
@@ -42731,16 +42731,16 @@
         <v>102.8</v>
       </c>
       <c r="CK112" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="CL112" t="n" s="10">
         <v>108.1</v>
       </c>
       <c r="CM112" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="CN112" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="CO112" t="n" s="10">
         <v>102.2</v>
@@ -42749,10 +42749,10 @@
         <v>100.8</v>
       </c>
       <c r="CQ112" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="CR112" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="CS112" t="n" s="10">
         <v>101.7</v>
@@ -42764,10 +42764,10 @@
         <v>101.8</v>
       </c>
       <c r="CV112" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CW112" t="n" s="10">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="CX112" t="n" s="10">
         <v>96.9</v>
@@ -42785,7 +42785,7 @@
         <v>99.3</v>
       </c>
       <c r="DC112" t="n" s="10">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="DD112" t="n" s="10">
         <v>99.5</v>
@@ -42803,7 +42803,7 @@
         <v>98.5</v>
       </c>
       <c r="DI112" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="DJ112" t="n" s="10">
         <v>101.0</v>
@@ -42824,7 +42824,7 @@
         <v>101.8</v>
       </c>
       <c r="DP112" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="DQ112" t="n" s="10">
         <v>103.0</v>
@@ -42904,10 +42904,10 @@
         <v>94.0</v>
       </c>
       <c r="M113" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="N113" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="O113" t="n" s="10">
         <v>94.9</v>
@@ -42931,13 +42931,13 @@
         <v>96.9</v>
       </c>
       <c r="V113" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="W113" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="X113" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="Y113" t="n" s="10">
         <v>98.1</v>
@@ -42976,7 +42976,7 @@
         <v>100.2</v>
       </c>
       <c r="AK113" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AL113" t="n" s="10">
         <v>100.9</v>
@@ -43111,7 +43111,7 @@
         <v>101.6</v>
       </c>
       <c r="CD113" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="CE113" t="n" s="10">
         <v>102.4</v>
@@ -43123,7 +43123,7 @@
         <v>102.8</v>
       </c>
       <c r="CH113" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="CI113" t="n" s="10">
         <v>102.8</v>
@@ -43168,7 +43168,7 @@
         <v>101.3</v>
       </c>
       <c r="CW113" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="CX113" t="n" s="10">
         <v>100.9</v>
@@ -43261,7 +43261,7 @@
         <v>100.0</v>
       </c>
       <c r="EB113" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="EC113" t="n" s="10">
         <v>100.0</v>
@@ -44487,7 +44487,7 @@
         <v>88.2</v>
       </c>
       <c r="E117" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="F117" t="n" s="10">
         <v>88.1</v>
@@ -44511,28 +44511,28 @@
         <v>87.5</v>
       </c>
       <c r="M117" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="N117" t="n" s="10">
         <v>88.9</v>
       </c>
       <c r="O117" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="P117" t="n" s="10">
         <v>87.7</v>
       </c>
       <c r="Q117" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="R117" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="S117" t="n" s="10">
         <v>88.6</v>
       </c>
       <c r="T117" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="U117" t="n" s="10">
         <v>89.4</v>
@@ -44544,13 +44544,13 @@
         <v>89.9</v>
       </c>
       <c r="X117" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="Y117" t="n" s="10">
         <v>91.1</v>
       </c>
       <c r="Z117" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="AA117" t="n" s="10">
         <v>92.6</v>
@@ -44562,7 +44562,7 @@
         <v>88.0</v>
       </c>
       <c r="AD117" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="AE117" t="n" s="10">
         <v>95.5</v>
@@ -44613,7 +44613,7 @@
         <v>93.0</v>
       </c>
       <c r="AU117" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="AV117" t="n" s="10">
         <v>93.1</v>
@@ -44622,22 +44622,22 @@
         <v>91.9</v>
       </c>
       <c r="AX117" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="AY117" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="AZ117" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="BA117" t="n" s="10">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="BB117" t="n" s="10">
         <v>87.5</v>
       </c>
       <c r="BC117" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BD117" t="n" s="10">
         <v>93.4</v>
@@ -44646,7 +44646,7 @@
         <v>93.8</v>
       </c>
       <c r="BF117" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="BG117" t="n" s="10">
         <v>95.4</v>
@@ -44655,7 +44655,7 @@
         <v>91.8</v>
       </c>
       <c r="BI117" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="BJ117" t="n" s="10">
         <v>93.1</v>
@@ -44670,7 +44670,7 @@
         <v>88.3</v>
       </c>
       <c r="BN117" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="BO117" t="n" s="10">
         <v>89.8</v>
@@ -44697,7 +44697,7 @@
         <v>92.9</v>
       </c>
       <c r="BW117" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="BX117" t="n" s="10">
         <v>93.7</v>
@@ -44709,10 +44709,10 @@
         <v>89.2</v>
       </c>
       <c r="CA117" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="CB117" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="CC117" t="n" s="10">
         <v>95.0</v>
@@ -44760,19 +44760,19 @@
         <v>93.3</v>
       </c>
       <c r="CR117" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="CS117" t="n" s="10">
         <v>97.8</v>
       </c>
       <c r="CT117" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="CU117" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="CV117" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="CW117" t="n" s="10">
         <v>102.8</v>
@@ -44781,7 +44781,7 @@
         <v>94.0</v>
       </c>
       <c r="CY117" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="CZ117" t="n" s="10">
         <v>97.5</v>
@@ -44790,13 +44790,13 @@
         <v>97.0</v>
       </c>
       <c r="DB117" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="DC117" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="DD117" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DE117" t="n" s="10">
         <v>95.7</v>
@@ -44814,7 +44814,7 @@
         <v>94.4</v>
       </c>
       <c r="DJ117" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="DK117" t="n" s="10">
         <v>97.0</v>
@@ -44856,10 +44856,10 @@
         <v>101.9</v>
       </c>
       <c r="DX117" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="DY117" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="DZ117" t="n" s="10">
         <v>104.0</v>
@@ -44871,7 +44871,7 @@
         <v>97.0</v>
       </c>
       <c r="EC117" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="ED117" t="n" s="10">
         <v>100.4</v>
@@ -44897,7 +44897,7 @@
         <v>87.2</v>
       </c>
       <c r="H118" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="I118" t="n" s="10">
         <v>87.7</v>
@@ -44933,7 +44933,7 @@
         <v>89.4</v>
       </c>
       <c r="T118" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="U118" t="n" s="10">
         <v>89.6</v>
@@ -44948,7 +44948,7 @@
         <v>90.2</v>
       </c>
       <c r="Y118" t="n" s="10">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="Z118" t="n" s="10">
         <v>90.7</v>
@@ -44960,7 +44960,7 @@
         <v>91.0</v>
       </c>
       <c r="AC118" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="AD118" t="n" s="10">
         <v>91.4</v>
@@ -45077,7 +45077,7 @@
         <v>90.8</v>
       </c>
       <c r="BP118" t="n" s="10">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="BQ118" t="n" s="10">
         <v>90.7</v>
@@ -45113,7 +45113,7 @@
         <v>94.5</v>
       </c>
       <c r="CB118" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="CC118" t="n" s="10">
         <v>95.5</v>
@@ -45122,10 +45122,10 @@
         <v>95.9</v>
       </c>
       <c r="CE118" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="CF118" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="CG118" t="n" s="10">
         <v>96.6</v>
@@ -45134,7 +45134,7 @@
         <v>96.7</v>
       </c>
       <c r="CI118" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="CJ118" t="n" s="10">
         <v>96.7</v>
@@ -45143,10 +45143,10 @@
         <v>96.8</v>
       </c>
       <c r="CL118" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="CM118" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="CN118" t="n" s="10">
         <v>96.8</v>
@@ -45158,7 +45158,7 @@
         <v>96.9</v>
       </c>
       <c r="CQ118" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="CR118" t="n" s="10">
         <v>97.3</v>
@@ -45170,7 +45170,7 @@
         <v>97.6</v>
       </c>
       <c r="CU118" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="CV118" t="n" s="10">
         <v>97.9</v>
@@ -45191,16 +45191,16 @@
         <v>97.5</v>
       </c>
       <c r="DB118" t="n" s="10">
+        <v>97.3</v>
+      </c>
+      <c r="DC118" t="n" s="10">
         <v>97.2</v>
-      </c>
-      <c r="DC118" t="n" s="10">
-        <v>97.1</v>
       </c>
       <c r="DD118" t="n" s="10">
         <v>97.0</v>
       </c>
       <c r="DE118" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="DF118" t="n" s="10">
         <v>97.0</v>
@@ -45263,7 +45263,7 @@
         <v>99.6</v>
       </c>
       <c r="DZ118" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="EA118" t="n" s="10">
         <v>99.4</v>
@@ -46575,10 +46575,10 @@
         <v>103.3</v>
       </c>
       <c r="AD123" t="n" s="10">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="AE123" t="n" s="10">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="AF123" t="n" s="10">
         <v>105.7</v>
@@ -46860,7 +46860,7 @@
         <v>99.6</v>
       </c>
       <c r="DU123" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="DV123" t="n" s="10">
         <v>98.9</v>
@@ -46946,7 +46946,7 @@
         <v>104.3</v>
       </c>
       <c r="T124" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="U124" t="n" s="10">
         <v>104.2</v>
@@ -47138,7 +47138,7 @@
         <v>100.0</v>
       </c>
       <c r="CF124" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="CG124" t="n" s="10">
         <v>100.3</v>
@@ -48514,7 +48514,7 @@
         <v>98.0</v>
       </c>
       <c r="G128" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="H128" t="n" s="10">
         <v>98.8</v>
@@ -48547,7 +48547,7 @@
         <v>95.8</v>
       </c>
       <c r="R128" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="S128" t="n" s="10">
         <v>96.1</v>
@@ -48724,7 +48724,7 @@
         <v>93.9</v>
       </c>
       <c r="BY128" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="BZ128" t="n" s="10">
         <v>93.2</v>
@@ -48814,7 +48814,7 @@
         <v>101.5</v>
       </c>
       <c r="DC128" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="DD128" t="n" s="10">
         <v>100.2</v>
@@ -48930,7 +48930,7 @@
         <v>97.2</v>
       </c>
       <c r="L129" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="M129" t="n" s="10">
         <v>96.8</v>
@@ -50518,64 +50518,64 @@
         <v>73.2</v>
       </c>
       <c r="D134" t="n" s="10">
-        <v>76.2</v>
+        <v>75.8</v>
       </c>
       <c r="E134" t="n" s="10">
-        <v>77.7</v>
+        <v>77.3</v>
       </c>
       <c r="F134" t="n" s="10">
-        <v>78.1</v>
+        <v>77.8</v>
       </c>
       <c r="G134" t="n" s="10">
-        <v>77.1</v>
+        <v>76.8</v>
       </c>
       <c r="H134" t="n" s="10">
-        <v>79.3</v>
+        <v>79.0</v>
       </c>
       <c r="I134" t="n" s="10">
-        <v>79.1</v>
+        <v>78.9</v>
       </c>
       <c r="J134" t="n" s="10">
-        <v>78.9</v>
+        <v>78.6</v>
       </c>
       <c r="K134" t="n" s="10">
-        <v>78.9</v>
+        <v>78.7</v>
       </c>
       <c r="L134" t="n" s="10">
+        <v>79.2</v>
+      </c>
+      <c r="M134" t="n" s="10">
         <v>79.4</v>
       </c>
-      <c r="M134" t="n" s="10">
-        <v>79.7</v>
-      </c>
       <c r="N134" t="n" s="10">
-        <v>79.9</v>
+        <v>82.3</v>
       </c>
       <c r="O134" t="n" s="10">
         <v>80.3</v>
       </c>
       <c r="P134" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="Q134" t="n" s="10">
+        <v>81.9</v>
+      </c>
+      <c r="R134" t="n" s="10">
+        <v>80.6</v>
+      </c>
+      <c r="S134" t="n" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="T134" t="n" s="10">
+        <v>81.0</v>
+      </c>
+      <c r="U134" t="n" s="10">
+        <v>82.4</v>
+      </c>
+      <c r="V134" t="n" s="10">
         <v>82.3</v>
       </c>
-      <c r="Q134" t="n" s="10">
-        <v>82.1</v>
-      </c>
-      <c r="R134" t="n" s="10">
-        <v>80.9</v>
-      </c>
-      <c r="S134" t="n" s="10">
-        <v>82.7</v>
-      </c>
-      <c r="T134" t="n" s="10">
-        <v>81.2</v>
-      </c>
-      <c r="U134" t="n" s="10">
-        <v>82.5</v>
-      </c>
-      <c r="V134" t="n" s="10">
-        <v>82.4</v>
-      </c>
       <c r="W134" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="X134" t="n" s="10">
         <v>83.4</v>
@@ -50584,7 +50584,7 @@
         <v>83.1</v>
       </c>
       <c r="Z134" t="n" s="10">
-        <v>82.5</v>
+        <v>83.0</v>
       </c>
       <c r="AA134" t="n" s="10">
         <v>83.7</v>
@@ -50599,7 +50599,7 @@
         <v>84.6</v>
       </c>
       <c r="AE134" t="n" s="10">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="AF134" t="n" s="10">
         <v>84.6</v>
@@ -50620,7 +50620,7 @@
         <v>85.6</v>
       </c>
       <c r="AL134" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="AM134" t="n" s="10">
         <v>85.1</v>
@@ -50659,13 +50659,13 @@
         <v>87.1</v>
       </c>
       <c r="AY134" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="AZ134" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="BA134" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="BB134" t="n" s="10">
         <v>88.6</v>
@@ -50689,7 +50689,7 @@
         <v>89.2</v>
       </c>
       <c r="BI134" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="BJ134" t="n" s="10">
         <v>90.2</v>
@@ -50746,7 +50746,7 @@
         <v>92.7</v>
       </c>
       <c r="CB134" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="CC134" t="n" s="10">
         <v>94.2</v>
@@ -50782,7 +50782,7 @@
         <v>92.7</v>
       </c>
       <c r="CN134" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="CO134" t="n" s="10">
         <v>92.9</v>
@@ -50857,7 +50857,7 @@
         <v>90.8</v>
       </c>
       <c r="DM134" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="DN134" t="n" s="10">
         <v>94.1</v>
@@ -50890,7 +50890,7 @@
         <v>97.3</v>
       </c>
       <c r="DX134" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="DY134" t="n" s="10">
         <v>97.2</v>
@@ -50916,64 +50916,64 @@
         <v>36</v>
       </c>
       <c r="C135" t="n" s="10">
+        <v>77.3</v>
+      </c>
+      <c r="D135" t="n" s="10">
+        <v>77.4</v>
+      </c>
+      <c r="E135" t="n" s="10">
+        <v>77.5</v>
+      </c>
+      <c r="F135" t="n" s="10">
+        <v>77.6</v>
+      </c>
+      <c r="G135" t="n" s="10">
+        <v>77.8</v>
+      </c>
+      <c r="H135" t="n" s="10">
         <v>78.1</v>
       </c>
-      <c r="D135" t="n" s="10">
-        <v>78.0</v>
-      </c>
-      <c r="E135" t="n" s="10">
-        <v>78.1</v>
-      </c>
-      <c r="F135" t="n" s="10">
-        <v>78.2</v>
-      </c>
-      <c r="G135" t="n" s="10">
-        <v>78.3</v>
-      </c>
-      <c r="H135" t="n" s="10">
-        <v>78.5</v>
-      </c>
       <c r="I135" t="n" s="10">
+        <v>78.4</v>
+      </c>
+      <c r="J135" t="n" s="10">
         <v>78.7</v>
       </c>
-      <c r="J135" t="n" s="10">
-        <v>78.9</v>
-      </c>
       <c r="K135" t="n" s="10">
-        <v>79.2</v>
+        <v>79.0</v>
       </c>
       <c r="L135" t="n" s="10">
-        <v>79.5</v>
+        <v>79.4</v>
       </c>
       <c r="M135" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="N135" t="n" s="10">
-        <v>80.3</v>
+        <v>80.1</v>
       </c>
       <c r="O135" t="n" s="10">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="P135" t="n" s="10">
-        <v>81.1</v>
+        <v>80.9</v>
       </c>
       <c r="Q135" t="n" s="10">
+        <v>81.2</v>
+      </c>
+      <c r="R135" t="n" s="10">
         <v>81.4</v>
       </c>
-      <c r="R135" t="n" s="10">
-        <v>81.6</v>
-      </c>
       <c r="S135" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="T135" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="U135" t="n" s="10">
         <v>82.3</v>
       </c>
       <c r="V135" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="W135" t="n" s="10">
         <v>82.8</v>
@@ -50982,7 +50982,7 @@
         <v>83.0</v>
       </c>
       <c r="Y135" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="Z135" t="n" s="10">
         <v>83.3</v>
@@ -51033,7 +51033,7 @@
         <v>86.4</v>
       </c>
       <c r="AP135" t="n" s="10">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="AQ135" t="n" s="10">
         <v>86.9</v>
@@ -51153,7 +51153,7 @@
         <v>93.1</v>
       </c>
       <c r="CD135" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="CE135" t="n" s="10">
         <v>92.8</v>
@@ -51162,10 +51162,10 @@
         <v>92.7</v>
       </c>
       <c r="CG135" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="CH135" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="CI135" t="n" s="10">
         <v>92.4</v>
@@ -51210,7 +51210,7 @@
         <v>93.1</v>
       </c>
       <c r="CW135" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="CX135" t="n" s="10">
         <v>92.6</v>
@@ -51237,7 +51237,7 @@
         <v>91.4</v>
       </c>
       <c r="DF135" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="DG135" t="n" s="10">
         <v>91.4</v>
@@ -52523,67 +52523,67 @@
         <v>35</v>
       </c>
       <c r="C139" t="n" s="10">
-        <v>67.5</v>
+        <v>67.4</v>
       </c>
       <c r="D139" t="n" s="10">
-        <v>69.9</v>
+        <v>69.8</v>
       </c>
       <c r="E139" t="n" s="10">
-        <v>71.2</v>
+        <v>71.0</v>
       </c>
       <c r="F139" t="n" s="10">
-        <v>71.4</v>
+        <v>71.3</v>
       </c>
       <c r="G139" t="n" s="10">
-        <v>70.4</v>
+        <v>70.3</v>
       </c>
       <c r="H139" t="n" s="10">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="I139" t="n" s="10">
+        <v>72.2</v>
+      </c>
+      <c r="J139" t="n" s="10">
+        <v>71.9</v>
+      </c>
+      <c r="K139" t="n" s="10">
+        <v>71.9</v>
+      </c>
+      <c r="L139" t="n" s="10">
         <v>72.3</v>
       </c>
-      <c r="J139" t="n" s="10">
-        <v>72.1</v>
-      </c>
-      <c r="K139" t="n" s="10">
-        <v>72.1</v>
-      </c>
-      <c r="L139" t="n" s="10">
+      <c r="M139" t="n" s="10">
         <v>72.5</v>
       </c>
-      <c r="M139" t="n" s="10">
-        <v>72.7</v>
-      </c>
       <c r="N139" t="n" s="10">
-        <v>73.9</v>
+        <v>75.1</v>
       </c>
       <c r="O139" t="n" s="10">
-        <v>73.4</v>
+        <v>73.3</v>
       </c>
       <c r="P139" t="n" s="10">
-        <v>75.0</v>
+        <v>74.8</v>
       </c>
       <c r="Q139" t="n" s="10">
         <v>74.8</v>
       </c>
       <c r="R139" t="n" s="10">
-        <v>73.9</v>
+        <v>73.7</v>
       </c>
       <c r="S139" t="n" s="10">
         <v>75.5</v>
       </c>
       <c r="T139" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="U139" t="n" s="10">
         <v>75.4</v>
       </c>
       <c r="V139" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="W139" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="X139" t="n" s="10">
         <v>76.3</v>
@@ -52592,25 +52592,25 @@
         <v>75.9</v>
       </c>
       <c r="Z139" t="n" s="10">
-        <v>75.4</v>
+        <v>75.9</v>
       </c>
       <c r="AA139" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="AB139" t="n" s="10">
         <v>76.3</v>
       </c>
       <c r="AC139" t="n" s="10">
-        <v>76.2</v>
+        <v>76.0</v>
       </c>
       <c r="AD139" t="n" s="10">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="AE139" t="n" s="10">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="AF139" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="AG139" t="n" s="10">
         <v>76.6</v>
@@ -52637,7 +52637,7 @@
         <v>77.2</v>
       </c>
       <c r="AO139" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="AP139" t="n" s="10">
         <v>78.0</v>
@@ -52652,31 +52652,31 @@
         <v>79.0</v>
       </c>
       <c r="AT139" t="n" s="10">
-        <v>79.5</v>
+        <v>79.4</v>
       </c>
       <c r="AU139" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="AV139" t="n" s="10">
         <v>80.1</v>
       </c>
       <c r="AW139" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="AX139" t="n" s="10">
-        <v>78.9</v>
+        <v>79.0</v>
       </c>
       <c r="AY139" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="AZ139" t="n" s="10">
         <v>81.3</v>
       </c>
       <c r="BA139" t="n" s="10">
-        <v>80.0</v>
+        <v>80.1</v>
       </c>
       <c r="BB139" t="n" s="10">
-        <v>80.3</v>
+        <v>80.1</v>
       </c>
       <c r="BC139" t="n" s="10">
         <v>80.8</v>
@@ -52691,13 +52691,13 @@
         <v>80.6</v>
       </c>
       <c r="BG139" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="BH139" t="n" s="10">
         <v>80.8</v>
       </c>
       <c r="BI139" t="n" s="10">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="BJ139" t="n" s="10">
         <v>81.9</v>
@@ -52706,19 +52706,19 @@
         <v>82.0</v>
       </c>
       <c r="BL139" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="BM139" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="BN139" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="BO139" t="n" s="10">
         <v>81.8</v>
       </c>
       <c r="BP139" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="BQ139" t="n" s="10">
         <v>82.0</v>
@@ -52748,19 +52748,19 @@
         <v>86.7</v>
       </c>
       <c r="BZ139" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="CA139" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="CB139" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="CC139" t="n" s="10">
         <v>86.7</v>
       </c>
       <c r="CD139" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="CE139" t="n" s="10">
         <v>85.9</v>
@@ -52769,13 +52769,13 @@
         <v>85.7</v>
       </c>
       <c r="CG139" t="n" s="10">
+        <v>85.3</v>
+      </c>
+      <c r="CH139" t="n" s="10">
+        <v>84.9</v>
+      </c>
+      <c r="CI139" t="n" s="10">
         <v>85.4</v>
-      </c>
-      <c r="CH139" t="n" s="10">
-        <v>85.0</v>
-      </c>
-      <c r="CI139" t="n" s="10">
-        <v>85.5</v>
       </c>
       <c r="CJ139" t="n" s="10">
         <v>85.4</v>
@@ -52787,16 +52787,16 @@
         <v>86.3</v>
       </c>
       <c r="CM139" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="CN139" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="CO139" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="CP139" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="CQ139" t="n" s="10">
         <v>87.5</v>
@@ -52808,22 +52808,22 @@
         <v>86.9</v>
       </c>
       <c r="CT139" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="CU139" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="CV139" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="CW139" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="CX139" t="n" s="10">
         <v>86.3</v>
       </c>
       <c r="CY139" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="CZ139" t="n" s="10">
         <v>88.0</v>
@@ -52835,16 +52835,16 @@
         <v>85.7</v>
       </c>
       <c r="DC139" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="DD139" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="DE139" t="n" s="10">
         <v>86.6</v>
       </c>
       <c r="DF139" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="DG139" t="n" s="10">
         <v>87.4</v>
@@ -52853,13 +52853,13 @@
         <v>87.1</v>
       </c>
       <c r="DI139" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="DJ139" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="DK139" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="DL139" t="n" s="10">
         <v>87.0</v>
@@ -52880,7 +52880,7 @@
         <v>90.8</v>
       </c>
       <c r="DR139" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="DS139" t="n" s="10">
         <v>91.7</v>
@@ -52895,10 +52895,10 @@
         <v>94.3</v>
       </c>
       <c r="DW139" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="DX139" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="DY139" t="n" s="10">
         <v>95.7</v>
@@ -52907,7 +52907,7 @@
         <v>95.6</v>
       </c>
       <c r="EA139" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="EB139" t="n" s="10">
         <v>97.3</v>
@@ -52924,67 +52924,67 @@
         <v>36</v>
       </c>
       <c r="C140" t="n" s="10">
+        <v>71.2</v>
+      </c>
+      <c r="D140" t="n" s="10">
+        <v>71.1</v>
+      </c>
+      <c r="E140" t="n" s="10">
+        <v>71.1</v>
+      </c>
+      <c r="F140" t="n" s="10">
+        <v>71.2</v>
+      </c>
+      <c r="G140" t="n" s="10">
         <v>71.3</v>
       </c>
-      <c r="D140" t="n" s="10">
-        <v>71.2</v>
-      </c>
-      <c r="E140" t="n" s="10">
-        <v>71.3</v>
-      </c>
-      <c r="F140" t="n" s="10">
-        <v>71.3</v>
-      </c>
-      <c r="G140" t="n" s="10">
-        <v>71.4</v>
-      </c>
       <c r="H140" t="n" s="10">
-        <v>71.6</v>
+        <v>71.5</v>
       </c>
       <c r="I140" t="n" s="10">
+        <v>71.7</v>
+      </c>
+      <c r="J140" t="n" s="10">
         <v>71.9</v>
       </c>
-      <c r="J140" t="n" s="10">
-        <v>72.1</v>
-      </c>
       <c r="K140" t="n" s="10">
-        <v>72.4</v>
+        <v>72.2</v>
       </c>
       <c r="L140" t="n" s="10">
-        <v>72.8</v>
+        <v>72.5</v>
       </c>
       <c r="M140" t="n" s="10">
-        <v>73.1</v>
+        <v>72.9</v>
       </c>
       <c r="N140" t="n" s="10">
+        <v>73.2</v>
+      </c>
+      <c r="O140" t="n" s="10">
         <v>73.5</v>
       </c>
-      <c r="O140" t="n" s="10">
-        <v>73.8</v>
-      </c>
       <c r="P140" t="n" s="10">
+        <v>73.9</v>
+      </c>
+      <c r="Q140" t="n" s="10">
         <v>74.1</v>
       </c>
-      <c r="Q140" t="n" s="10">
+      <c r="R140" t="n" s="10">
         <v>74.4</v>
       </c>
-      <c r="R140" t="n" s="10">
-        <v>74.6</v>
-      </c>
       <c r="S140" t="n" s="10">
-        <v>74.8</v>
+        <v>74.7</v>
       </c>
       <c r="T140" t="n" s="10">
-        <v>75.1</v>
+        <v>74.9</v>
       </c>
       <c r="U140" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="V140" t="n" s="10">
         <v>75.5</v>
       </c>
       <c r="W140" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="X140" t="n" s="10">
         <v>75.9</v>
@@ -53056,7 +53056,7 @@
         <v>79.4</v>
       </c>
       <c r="AU140" t="n" s="10">
-        <v>79.5</v>
+        <v>79.6</v>
       </c>
       <c r="AV140" t="n" s="10">
         <v>79.7</v>
@@ -53074,7 +53074,7 @@
         <v>80.2</v>
       </c>
       <c r="BA140" t="n" s="10">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="BB140" t="n" s="10">
         <v>80.3</v>
@@ -53140,7 +53140,7 @@
         <v>84.2</v>
       </c>
       <c r="BW140" t="n" s="10">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="BX140" t="n" s="10">
         <v>84.9</v>
@@ -53164,13 +53164,13 @@
         <v>85.7</v>
       </c>
       <c r="CE140" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="CF140" t="n" s="10">
         <v>85.6</v>
       </c>
       <c r="CG140" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="CH140" t="n" s="10">
         <v>85.5</v>
@@ -53182,10 +53182,10 @@
         <v>85.5</v>
       </c>
       <c r="CK140" t="n" s="10">
+        <v>85.5</v>
+      </c>
+      <c r="CL140" t="n" s="10">
         <v>85.6</v>
-      </c>
-      <c r="CL140" t="n" s="10">
-        <v>85.7</v>
       </c>
       <c r="CM140" t="n" s="10">
         <v>85.8</v>
@@ -53200,7 +53200,7 @@
         <v>86.5</v>
       </c>
       <c r="CQ140" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="CR140" t="n" s="10">
         <v>86.9</v>
@@ -53215,10 +53215,10 @@
         <v>87.1</v>
       </c>
       <c r="CV140" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="CW140" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="CX140" t="n" s="10">
         <v>86.8</v>
@@ -53242,10 +53242,10 @@
         <v>86.5</v>
       </c>
       <c r="DE140" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="DF140" t="n" s="10">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="DG140" t="n" s="10">
         <v>86.8</v>
@@ -53254,10 +53254,10 @@
         <v>87.0</v>
       </c>
       <c r="DI140" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="DJ140" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="DK140" t="n" s="10">
         <v>87.9</v>
@@ -53290,7 +53290,7 @@
         <v>92.4</v>
       </c>
       <c r="DU140" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="DV140" t="n" s="10">
         <v>93.7</v>
@@ -53299,10 +53299,10 @@
         <v>94.4</v>
       </c>
       <c r="DX140" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="DY140" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DZ140" t="n" s="10">
         <v>96.1</v>
@@ -53410,7 +53410,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:09:06&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:04:48&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>